--- a/SeattleTerminal18/Test.xlsx
+++ b/SeattleTerminal18/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="356">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -32,117 +32,69 @@
     <t>BOLNumber</t>
   </si>
   <si>
-    <t>SKIU2147050</t>
-  </si>
-  <si>
-    <t>CMA CGM AQUILA</t>
+    <t>CCLU5125933</t>
+  </si>
+  <si>
+    <t>CMA CGM PEGASUS</t>
+  </si>
+  <si>
+    <t>00002</t>
+  </si>
+  <si>
+    <t>DJSEAA3787975</t>
+  </si>
+  <si>
+    <t>7031969282</t>
+  </si>
+  <si>
+    <t>6200314230</t>
+  </si>
+  <si>
+    <t>TRLU7352459</t>
+  </si>
+  <si>
+    <t>CMA CGM GEMINI</t>
+  </si>
+  <si>
+    <t>01MA</t>
+  </si>
+  <si>
+    <t>719392725</t>
+  </si>
+  <si>
+    <t>CMDUAYN0518543</t>
+  </si>
+  <si>
+    <t>XINU8191795</t>
+  </si>
+  <si>
+    <t>HLXU3395652</t>
+  </si>
+  <si>
+    <t>BUDAPEST EXPRESS</t>
+  </si>
+  <si>
+    <t>00051</t>
+  </si>
+  <si>
+    <t>DJPDXA3804629</t>
+  </si>
+  <si>
+    <t>7180838213</t>
+  </si>
+  <si>
+    <t>NG11901CLJT7</t>
+  </si>
+  <si>
+    <t>AXIU4346554</t>
+  </si>
+  <si>
+    <t>APL SALALAH</t>
   </si>
   <si>
     <t>00001</t>
   </si>
   <si>
-    <t>DJPDXA3739105</t>
-  </si>
-  <si>
-    <t>7180831060</t>
-  </si>
-  <si>
-    <t>6202420440</t>
-  </si>
-  <si>
-    <t>SKIU2146840</t>
-  </si>
-  <si>
-    <t>DJPDXA3739385</t>
-  </si>
-  <si>
-    <t>SKIU2145084</t>
-  </si>
-  <si>
-    <t>DJPDXA3739103</t>
-  </si>
-  <si>
-    <t>DJPDXA3739104</t>
-  </si>
-  <si>
-    <t>DJPDXA3739386</t>
-  </si>
-  <si>
-    <t>CBHU8685572</t>
-  </si>
-  <si>
-    <t>CMA CGM LYRA</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>7031976013</t>
-  </si>
-  <si>
-    <t>6203410112</t>
-  </si>
-  <si>
-    <t>CCLU5125933</t>
-  </si>
-  <si>
-    <t>CMA CGM PEGASUS</t>
-  </si>
-  <si>
-    <t>00002</t>
-  </si>
-  <si>
-    <t>DJSEAA3787975</t>
-  </si>
-  <si>
-    <t>7031969282</t>
-  </si>
-  <si>
-    <t>6200314230</t>
-  </si>
-  <si>
-    <t>TRLU7352459</t>
-  </si>
-  <si>
-    <t>CMA CGM GEMINI</t>
-  </si>
-  <si>
-    <t>01MA</t>
-  </si>
-  <si>
-    <t>719392725</t>
-  </si>
-  <si>
-    <t>CMDUAYN0518543</t>
-  </si>
-  <si>
-    <t>XINU8191795</t>
-  </si>
-  <si>
-    <t>HLXU3395652</t>
-  </si>
-  <si>
-    <t>BUDAPEST EXPRESS</t>
-  </si>
-  <si>
-    <t>00051</t>
-  </si>
-  <si>
-    <t>DJPDXA3804629</t>
-  </si>
-  <si>
-    <t>7180838213</t>
-  </si>
-  <si>
-    <t>NG11901CLJT7</t>
-  </si>
-  <si>
-    <t>AXIU4346554</t>
-  </si>
-  <si>
-    <t>APL SALALAH</t>
-  </si>
-  <si>
     <t>DJPDXA3844388</t>
   </si>
   <si>
@@ -227,6 +179,45 @@
     <t>DUS190112243</t>
   </si>
   <si>
+    <t>CMAU4153297</t>
+  </si>
+  <si>
+    <t>APL SOUTHAMPTON</t>
+  </si>
+  <si>
+    <t>00027</t>
+  </si>
+  <si>
+    <t>DJSEAA3977520</t>
+  </si>
+  <si>
+    <t>7032013301</t>
+  </si>
+  <si>
+    <t>NPFB502789</t>
+  </si>
+  <si>
+    <t>SEGU6306682</t>
+  </si>
+  <si>
+    <t>APL YANGSHAN</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>7032019871</t>
+  </si>
+  <si>
+    <t>SHZY003802</t>
+  </si>
+  <si>
+    <t>TCNU4233177</t>
+  </si>
+  <si>
+    <t>TCNU1225901</t>
+  </si>
+  <si>
     <t>HLXU6372579</t>
   </si>
   <si>
@@ -278,9 +269,6 @@
     <t>PCIU9467064</t>
   </si>
   <si>
-    <t>APL YANGSHAN</t>
-  </si>
-  <si>
     <t>00013</t>
   </si>
   <si>
@@ -338,6 +326,15 @@
     <t>BUDV00268600</t>
   </si>
   <si>
+    <t>ECMU4559993</t>
+  </si>
+  <si>
+    <t>7032019980</t>
+  </si>
+  <si>
+    <t>CNSE812765</t>
+  </si>
+  <si>
     <t>TCNU8408550</t>
   </si>
   <si>
@@ -353,9 +350,6 @@
     <t>AKCU2818591</t>
   </si>
   <si>
-    <t>APL SOUTHAMPTON</t>
-  </si>
-  <si>
     <t>00003</t>
   </si>
   <si>
@@ -422,6 +416,18 @@
     <t>DJPDXA3964979</t>
   </si>
   <si>
+    <t>DRYU4553650</t>
+  </si>
+  <si>
+    <t>DJSEAA3975711</t>
+  </si>
+  <si>
+    <t>7032018404</t>
+  </si>
+  <si>
+    <t>6206861890</t>
+  </si>
+  <si>
     <t>WFHU5179623</t>
   </si>
   <si>
@@ -461,12 +467,48 @@
     <t>VIE190218070</t>
   </si>
   <si>
+    <t>PGTU4145596</t>
+  </si>
+  <si>
+    <t>DJSEAA3986446</t>
+  </si>
+  <si>
+    <t>7032013268</t>
+  </si>
+  <si>
+    <t>TS9ND0792400</t>
+  </si>
+  <si>
+    <t>APZU3455492</t>
+  </si>
+  <si>
+    <t>DJSEAA3986270</t>
+  </si>
+  <si>
+    <t>7032006847</t>
+  </si>
+  <si>
+    <t>APK0100395</t>
+  </si>
+  <si>
     <t>CAXU8037078</t>
   </si>
   <si>
     <t>DJPDXA3964283</t>
   </si>
   <si>
+    <t>TCKU3669897</t>
+  </si>
+  <si>
+    <t>DJSEAA3985970</t>
+  </si>
+  <si>
+    <t>7032010850</t>
+  </si>
+  <si>
+    <t>TSZH802730</t>
+  </si>
+  <si>
     <t>CSNU6611835</t>
   </si>
   <si>
@@ -530,6 +572,45 @@
     <t>AJR0106694</t>
   </si>
   <si>
+    <t>TGHU9616740</t>
+  </si>
+  <si>
+    <t>7032019873</t>
+  </si>
+  <si>
+    <t>SHZY003796</t>
+  </si>
+  <si>
+    <t>TEMU6168527</t>
+  </si>
+  <si>
+    <t>CMAU4610182</t>
+  </si>
+  <si>
+    <t>CMAU8163138</t>
+  </si>
+  <si>
+    <t>ECMU4559294</t>
+  </si>
+  <si>
+    <t>APHU7380953</t>
+  </si>
+  <si>
+    <t>SKIU2140987</t>
+  </si>
+  <si>
+    <t>TRLU6502929</t>
+  </si>
+  <si>
+    <t>DJPDXA3987567</t>
+  </si>
+  <si>
+    <t>7180847687</t>
+  </si>
+  <si>
+    <t>PRG190206900</t>
+  </si>
+  <si>
     <t>TGHU6996251</t>
   </si>
   <si>
@@ -545,6 +626,24 @@
     <t>102900011460</t>
   </si>
   <si>
+    <t>HLBU1852881</t>
+  </si>
+  <si>
+    <t>TOKYO EXPRESS</t>
+  </si>
+  <si>
+    <t>00010</t>
+  </si>
+  <si>
+    <t>DJPDXA3984461</t>
+  </si>
+  <si>
+    <t>7180846003</t>
+  </si>
+  <si>
+    <t>SJ2190301095</t>
+  </si>
+  <si>
     <t>NYKU3500713</t>
   </si>
   <si>
@@ -629,22 +728,31 @@
     <t>6189187460</t>
   </si>
   <si>
-    <t>OOLU7934341</t>
-  </si>
-  <si>
-    <t>00000</t>
-  </si>
-  <si>
-    <t>DJSEAA3918062</t>
-  </si>
-  <si>
-    <t>7032008539</t>
-  </si>
-  <si>
-    <t>2106053320</t>
-  </si>
-  <si>
-    <t>DFOU8027769</t>
+    <t>TEMU8045901</t>
+  </si>
+  <si>
+    <t>DJSEAA3931557</t>
+  </si>
+  <si>
+    <t>7032005536</t>
+  </si>
+  <si>
+    <t>TPEV13596500</t>
+  </si>
+  <si>
+    <t>TCNU9978305</t>
+  </si>
+  <si>
+    <t>DJPDXA3956169</t>
+  </si>
+  <si>
+    <t>7180852436</t>
+  </si>
+  <si>
+    <t>NPCA006674</t>
+  </si>
+  <si>
+    <t>DFSU2462784</t>
   </si>
   <si>
     <t>SM MUMBAI</t>
@@ -653,63 +761,6 @@
     <t>01902</t>
   </si>
   <si>
-    <t>DJSEAA3924779</t>
-  </si>
-  <si>
-    <t>7032009800</t>
-  </si>
-  <si>
-    <t>TYO9A1120400</t>
-  </si>
-  <si>
-    <t>SEGU5444840</t>
-  </si>
-  <si>
-    <t>ROTTERDAM EXPRESS</t>
-  </si>
-  <si>
-    <t>01709</t>
-  </si>
-  <si>
-    <t>DJPDXA3927156</t>
-  </si>
-  <si>
-    <t>7180841683</t>
-  </si>
-  <si>
-    <t>LE1190237524</t>
-  </si>
-  <si>
-    <t>TEMU8045901</t>
-  </si>
-  <si>
-    <t>DJSEAA3931557</t>
-  </si>
-  <si>
-    <t>7032005536</t>
-  </si>
-  <si>
-    <t>TPEV13596500</t>
-  </si>
-  <si>
-    <t>TCNU9978305</t>
-  </si>
-  <si>
-    <t>00027</t>
-  </si>
-  <si>
-    <t>DJPDXA3956169</t>
-  </si>
-  <si>
-    <t>7180852436</t>
-  </si>
-  <si>
-    <t>NPCA006674</t>
-  </si>
-  <si>
-    <t>DFSU2462784</t>
-  </si>
-  <si>
     <t>DJSEAA3938285</t>
   </si>
   <si>
@@ -776,21 +827,6 @@
     <t>SHPP90032900</t>
   </si>
   <si>
-    <t>CSNU7201394</t>
-  </si>
-  <si>
-    <t>00106</t>
-  </si>
-  <si>
-    <t>DJSEAA3926812</t>
-  </si>
-  <si>
-    <t>7032007807</t>
-  </si>
-  <si>
-    <t>6202926920</t>
-  </si>
-  <si>
     <t>HLXU8229192</t>
   </si>
   <si>
@@ -809,18 +845,6 @@
     <t>6189187810</t>
   </si>
   <si>
-    <t>UACU3853684</t>
-  </si>
-  <si>
-    <t>DJPDXA3936735</t>
-  </si>
-  <si>
-    <t>7180842281</t>
-  </si>
-  <si>
-    <t>LE1190238487</t>
-  </si>
-  <si>
     <t>TCLU4547777</t>
   </si>
   <si>
@@ -941,15 +965,36 @@
     <t>BSIU9517413</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>7032018572</t>
   </si>
   <si>
     <t>6206819700</t>
   </si>
   <si>
+    <t>DFSU1831764</t>
+  </si>
+  <si>
+    <t>OOCL SAN FRANCISCO</t>
+  </si>
+  <si>
+    <t>00139</t>
+  </si>
+  <si>
+    <t>DJSEAA3986069</t>
+  </si>
+  <si>
+    <t>7032013794</t>
+  </si>
+  <si>
+    <t>6194876250</t>
+  </si>
+  <si>
+    <t>TRLU9444390</t>
+  </si>
+  <si>
+    <t>DJSEAA3986452</t>
+  </si>
+  <si>
     <t>GESU5742218</t>
   </si>
   <si>
@@ -968,6 +1013,18 @@
     <t>DJPDXA3964295</t>
   </si>
   <si>
+    <t>TGHU5061773</t>
+  </si>
+  <si>
+    <t>DJSEAA3977591</t>
+  </si>
+  <si>
+    <t>7032009805</t>
+  </si>
+  <si>
+    <t>SZX900778500</t>
+  </si>
+  <si>
     <t>APZU4695034</t>
   </si>
   <si>
@@ -978,6 +1035,51 @@
   </si>
   <si>
     <t>XHMN035497</t>
+  </si>
+  <si>
+    <t>BEAU4070467</t>
+  </si>
+  <si>
+    <t>7321139954</t>
+  </si>
+  <si>
+    <t>APLUAJD0257163</t>
+  </si>
+  <si>
+    <t>BMOU4654486</t>
+  </si>
+  <si>
+    <t>CMAU5426610</t>
+  </si>
+  <si>
+    <t>TCNU1230132</t>
+  </si>
+  <si>
+    <t>FCIU3463380</t>
+  </si>
+  <si>
+    <t>DJSEAA3977580</t>
+  </si>
+  <si>
+    <t>7032013295</t>
+  </si>
+  <si>
+    <t>NPCA006673</t>
+  </si>
+  <si>
+    <t>CRXU3301095</t>
+  </si>
+  <si>
+    <t>00110</t>
+  </si>
+  <si>
+    <t>DJSEAA3976577</t>
+  </si>
+  <si>
+    <t>7032001600</t>
+  </si>
+  <si>
+    <t>GOA190311330</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1124,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1073,499 +1175,499 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="F13" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E18" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D19" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E19" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F19" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" t="s">
         <v>82</v>
       </c>
-      <c r="C20" t="s">
+      <c r="F20" t="s">
         <v>83</v>
-      </c>
-      <c r="D20" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F20" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E21" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F21" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" t="s">
         <v>82</v>
       </c>
-      <c r="C22" t="s">
+      <c r="F22" t="s">
         <v>83</v>
-      </c>
-      <c r="D22" t="s">
-        <v>94</v>
-      </c>
-      <c r="E22" t="s">
-        <v>85</v>
-      </c>
-      <c r="F22" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C23" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D23" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E23" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F23" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="D24" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E24" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="F24" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B25" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E25" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F25" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="D26" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E26" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F26" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B27" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="D27" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E27" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="F27" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28">
@@ -1573,19 +1675,19 @@
         <v>118</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="D28" t="s">
         <v>119</v>
       </c>
       <c r="E28" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="F28" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29">
@@ -1593,59 +1695,59 @@
         <v>120</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="D29" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E29" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="F29" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="C30" t="s">
-        <v>123</v>
+        <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E30" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F30" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B31" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="C31" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="D31" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E31" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="F31" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32">
@@ -1653,19 +1755,19 @@
         <v>132</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="D32" t="s">
         <v>133</v>
       </c>
       <c r="E32" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="F32" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33">
@@ -1673,193 +1775,193 @@
         <v>134</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>123</v>
+        <v>8</v>
       </c>
       <c r="D33" t="s">
         <v>135</v>
       </c>
       <c r="E33" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="F33" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B34" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C34" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D34" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E34" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F34" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D35" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E35" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F35" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D36" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E36" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F36" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="D37" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E37" t="s">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="F37" t="s">
-        <v>80</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B38" t="s">
-        <v>152</v>
+        <v>62</v>
       </c>
       <c r="C38" t="s">
-        <v>153</v>
+        <v>26</v>
       </c>
       <c r="D38" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E38" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F38" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B39" t="s">
-        <v>158</v>
+        <v>69</v>
       </c>
       <c r="C39" t="s">
-        <v>159</v>
+        <v>70</v>
       </c>
       <c r="D39" t="s">
         <v>160</v>
       </c>
       <c r="E39" t="s">
-        <v>161</v>
+        <v>76</v>
       </c>
       <c r="F39" t="s">
-        <v>162</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>161</v>
+      </c>
+      <c r="B40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" t="s">
+        <v>162</v>
+      </c>
+      <c r="E40" t="s">
         <v>163</v>
       </c>
-      <c r="B40" t="s">
+      <c r="F40" t="s">
         <v>164</v>
-      </c>
-      <c r="C40" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" t="s">
-        <v>165</v>
-      </c>
-      <c r="E40" t="s">
-        <v>166</v>
-      </c>
-      <c r="F40" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>165</v>
+      </c>
+      <c r="B41" t="s">
+        <v>166</v>
+      </c>
+      <c r="C41" t="s">
+        <v>167</v>
+      </c>
+      <c r="D41" t="s">
         <v>168</v>
       </c>
-      <c r="B41" t="s">
-        <v>128</v>
-      </c>
-      <c r="C41" t="s">
-        <v>96</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>169</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>170</v>
-      </c>
-      <c r="F41" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>171</v>
+      </c>
+      <c r="B42" t="s">
         <v>172</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>173</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>174</v>
-      </c>
-      <c r="D42" t="s">
-        <v>175</v>
       </c>
       <c r="E42" t="s">
         <v>175</v>
@@ -1873,30 +1975,30 @@
         <v>177</v>
       </c>
       <c r="B43" t="s">
-        <v>103</v>
+        <v>178</v>
       </c>
       <c r="C43" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="D43" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E43" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F43" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="C44" t="s">
-        <v>182</v>
+        <v>92</v>
       </c>
       <c r="D44" t="s">
         <v>183</v>
@@ -1913,739 +2015,1059 @@
         <v>186</v>
       </c>
       <c r="B45" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C45" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D45" t="s">
         <v>187</v>
       </c>
       <c r="E45" t="s">
-        <v>75</v>
+        <v>187</v>
       </c>
       <c r="F45" t="s">
-        <v>76</v>
+        <v>188</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>189</v>
+      </c>
+      <c r="B46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" t="s">
+        <v>187</v>
+      </c>
+      <c r="E46" t="s">
+        <v>187</v>
+      </c>
+      <c r="F46" t="s">
         <v>188</v>
-      </c>
-      <c r="B46" t="s">
-        <v>137</v>
-      </c>
-      <c r="C46" t="s">
-        <v>138</v>
-      </c>
-      <c r="D46" t="s">
-        <v>189</v>
-      </c>
-      <c r="E46" t="s">
-        <v>189</v>
-      </c>
-      <c r="F46" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B47" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C47" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D47" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E47" t="s">
-        <v>75</v>
+        <v>187</v>
       </c>
       <c r="F47" t="s">
-        <v>76</v>
+        <v>188</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B48" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="C48" t="s">
-        <v>194</v>
+        <v>63</v>
       </c>
       <c r="D48" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E48" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="F48" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B49" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C49" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D49" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="E49" t="s">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="F49" t="s">
-        <v>80</v>
+        <v>188</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B50" t="s">
-        <v>152</v>
+        <v>62</v>
       </c>
       <c r="C50" t="s">
-        <v>201</v>
+        <v>63</v>
       </c>
       <c r="D50" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="E50" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="F50" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="B51" t="s">
-        <v>164</v>
+        <v>62</v>
       </c>
       <c r="C51" t="s">
-        <v>206</v>
+        <v>63</v>
       </c>
       <c r="D51" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="E51" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="F51" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="B52" t="s">
-        <v>211</v>
+        <v>99</v>
       </c>
       <c r="C52" t="s">
-        <v>212</v>
+        <v>100</v>
       </c>
       <c r="D52" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="E52" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="F52" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="B53" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="C53" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D53" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="E53" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="F53" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="B54" t="s">
-        <v>72</v>
+        <v>205</v>
       </c>
       <c r="C54" t="s">
-        <v>73</v>
+        <v>206</v>
       </c>
       <c r="D54" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="E54" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="F54" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="B55" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C55" t="s">
-        <v>227</v>
+        <v>100</v>
       </c>
       <c r="D55" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="E55" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="F55" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="B56" t="s">
-        <v>211</v>
+        <v>35</v>
       </c>
       <c r="C56" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D56" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="E56" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="F56" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="B57" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="C57" t="s">
-        <v>236</v>
+        <v>70</v>
       </c>
       <c r="D57" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="E57" t="s">
-        <v>238</v>
+        <v>72</v>
       </c>
       <c r="F57" t="s">
-        <v>239</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="B58" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="C58" t="s">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="D58" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="E58" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="F58" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="B59" t="s">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="C59" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="D59" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="E59" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="F59" t="s">
-        <v>131</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="B60" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="C60" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="D60" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="E60" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="F60" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="B61" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="C61" t="s">
-        <v>251</v>
+        <v>70</v>
       </c>
       <c r="D61" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="E61" t="s">
-        <v>252</v>
+        <v>76</v>
       </c>
       <c r="F61" t="s">
-        <v>253</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="B62" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C62" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="D62" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="E62" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="F62" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="B63" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C63" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D63" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="E63" t="s">
-        <v>75</v>
+        <v>240</v>
       </c>
       <c r="F63" t="s">
-        <v>76</v>
+        <v>241</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="B64" t="s">
-        <v>152</v>
+        <v>56</v>
       </c>
       <c r="C64" t="s">
-        <v>153</v>
+        <v>57</v>
       </c>
       <c r="D64" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="E64" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="F64" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="B65" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="C65" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="D65" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="E65" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="F65" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="B66" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C66" t="s">
-        <v>73</v>
+        <v>253</v>
       </c>
       <c r="D66" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="E66" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="F66" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="B67" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>247</v>
+        <v>70</v>
       </c>
       <c r="D67" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="E67" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="F67" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B68" t="s">
+        <v>126</v>
+      </c>
+      <c r="C68" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" t="s">
+        <v>262</v>
+      </c>
+      <c r="E68" t="s">
         <v>128</v>
       </c>
-      <c r="C68" t="s">
-        <v>194</v>
-      </c>
-      <c r="D68" t="s">
-        <v>277</v>
-      </c>
-      <c r="E68" t="s">
-        <v>278</v>
-      </c>
       <c r="F68" t="s">
-        <v>279</v>
+        <v>129</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="B69" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="C69" t="s">
-        <v>227</v>
+        <v>264</v>
       </c>
       <c r="D69" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="E69" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="F69" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="B70" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>268</v>
       </c>
       <c r="D70" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="E70" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="F70" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="B71" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C71" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="D71" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="E71" t="s">
-        <v>290</v>
+        <v>72</v>
       </c>
       <c r="F71" t="s">
-        <v>291</v>
+        <v>73</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="B72" t="s">
-        <v>72</v>
+        <v>166</v>
       </c>
       <c r="C72" t="s">
-        <v>73</v>
+        <v>167</v>
       </c>
       <c r="D72" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="E72" t="s">
-        <v>79</v>
+        <v>275</v>
       </c>
       <c r="F72" t="s">
-        <v>80</v>
+        <v>276</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="B73" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C73" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="D73" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="E73" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="F73" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="B74" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="C74" t="s">
-        <v>227</v>
+        <v>264</v>
       </c>
       <c r="D74" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="E74" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="F74" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="B75" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="C75" t="s">
-        <v>73</v>
+        <v>227</v>
       </c>
       <c r="D75" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="E75" t="s">
-        <v>79</v>
+        <v>286</v>
       </c>
       <c r="F75" t="s">
-        <v>80</v>
+        <v>287</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="B76" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="C76" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="D76" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="E76" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="F76" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="B77" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="C77" t="s">
-        <v>309</v>
+        <v>26</v>
       </c>
       <c r="D77" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="E77" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="F77" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="B78" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="C78" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="D78" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="E78" t="s">
-        <v>79</v>
+        <v>298</v>
       </c>
       <c r="F78" t="s">
-        <v>80</v>
+        <v>299</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="B79" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C79" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D79" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="E79" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F79" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="B80" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="C80" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="D80" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="E80" t="s">
-        <v>79</v>
+        <v>304</v>
       </c>
       <c r="F80" t="s">
-        <v>80</v>
+        <v>305</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>306</v>
+      </c>
+      <c r="B81" t="s">
+        <v>56</v>
+      </c>
+      <c r="C81" t="s">
+        <v>57</v>
+      </c>
+      <c r="D81" t="s">
+        <v>307</v>
+      </c>
+      <c r="E81" t="s">
+        <v>308</v>
+      </c>
+      <c r="F81" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>310</v>
+      </c>
+      <c r="B82" t="s">
+        <v>69</v>
+      </c>
+      <c r="C82" t="s">
+        <v>70</v>
+      </c>
+      <c r="D82" t="s">
+        <v>311</v>
+      </c>
+      <c r="E82" t="s">
+        <v>76</v>
+      </c>
+      <c r="F82" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>312</v>
+      </c>
+      <c r="B83" t="s">
+        <v>99</v>
+      </c>
+      <c r="C83" t="s">
+        <v>100</v>
+      </c>
+      <c r="D83" t="s">
+        <v>313</v>
+      </c>
+      <c r="E83" t="s">
+        <v>314</v>
+      </c>
+      <c r="F83" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>316</v>
+      </c>
+      <c r="B84" t="s">
+        <v>62</v>
+      </c>
+      <c r="C84" t="s">
+        <v>63</v>
+      </c>
+      <c r="D84" t="s">
+        <v>317</v>
+      </c>
+      <c r="E84" t="s">
+        <v>317</v>
+      </c>
+      <c r="F84" t="s">
         <v>318</v>
       </c>
-      <c r="B81" t="s">
-        <v>113</v>
-      </c>
-      <c r="C81" t="s">
-        <v>25</v>
-      </c>
-      <c r="D81" t="s">
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
         <v>319</v>
       </c>
-      <c r="E81" t="s">
+      <c r="B85" t="s">
         <v>320</v>
       </c>
-      <c r="F81" t="s">
+      <c r="C85" t="s">
         <v>321</v>
+      </c>
+      <c r="D85" t="s">
+        <v>322</v>
+      </c>
+      <c r="E85" t="s">
+        <v>323</v>
+      </c>
+      <c r="F85" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>325</v>
+      </c>
+      <c r="B86" t="s">
+        <v>139</v>
+      </c>
+      <c r="C86" t="s">
+        <v>26</v>
+      </c>
+      <c r="D86" t="s">
+        <v>326</v>
+      </c>
+      <c r="E86" t="s">
+        <v>153</v>
+      </c>
+      <c r="F86" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>327</v>
+      </c>
+      <c r="B87" t="s">
+        <v>69</v>
+      </c>
+      <c r="C87" t="s">
+        <v>70</v>
+      </c>
+      <c r="D87" t="s">
+        <v>328</v>
+      </c>
+      <c r="E87" t="s">
+        <v>76</v>
+      </c>
+      <c r="F87" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>329</v>
+      </c>
+      <c r="B88" t="s">
+        <v>69</v>
+      </c>
+      <c r="C88" t="s">
+        <v>70</v>
+      </c>
+      <c r="D88" t="s">
+        <v>330</v>
+      </c>
+      <c r="E88" t="s">
+        <v>76</v>
+      </c>
+      <c r="F88" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>331</v>
+      </c>
+      <c r="B89" t="s">
+        <v>69</v>
+      </c>
+      <c r="C89" t="s">
+        <v>70</v>
+      </c>
+      <c r="D89" t="s">
+        <v>332</v>
+      </c>
+      <c r="E89" t="s">
+        <v>76</v>
+      </c>
+      <c r="F89" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>333</v>
+      </c>
+      <c r="B90" t="s">
+        <v>56</v>
+      </c>
+      <c r="C90" t="s">
+        <v>253</v>
+      </c>
+      <c r="D90" t="s">
+        <v>334</v>
+      </c>
+      <c r="E90" t="s">
+        <v>335</v>
+      </c>
+      <c r="F90" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>337</v>
+      </c>
+      <c r="B91" t="s">
+        <v>56</v>
+      </c>
+      <c r="C91" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" t="s">
+        <v>338</v>
+      </c>
+      <c r="E91" t="s">
+        <v>339</v>
+      </c>
+      <c r="F91" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>341</v>
+      </c>
+      <c r="B92" t="s">
+        <v>320</v>
+      </c>
+      <c r="C92" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" t="s">
+        <v>342</v>
+      </c>
+      <c r="E92" t="s">
+        <v>342</v>
+      </c>
+      <c r="F92" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>344</v>
+      </c>
+      <c r="B93" t="s">
+        <v>320</v>
+      </c>
+      <c r="C93" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" t="s">
+        <v>342</v>
+      </c>
+      <c r="E93" t="s">
+        <v>342</v>
+      </c>
+      <c r="F93" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>345</v>
+      </c>
+      <c r="B94" t="s">
+        <v>320</v>
+      </c>
+      <c r="C94" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" t="s">
+        <v>342</v>
+      </c>
+      <c r="E94" t="s">
+        <v>342</v>
+      </c>
+      <c r="F94" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>346</v>
+      </c>
+      <c r="B95" t="s">
+        <v>320</v>
+      </c>
+      <c r="C95" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" t="s">
+        <v>342</v>
+      </c>
+      <c r="E95" t="s">
+        <v>342</v>
+      </c>
+      <c r="F95" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>347</v>
+      </c>
+      <c r="B96" t="s">
+        <v>56</v>
+      </c>
+      <c r="C96" t="s">
+        <v>57</v>
+      </c>
+      <c r="D96" t="s">
+        <v>348</v>
+      </c>
+      <c r="E96" t="s">
+        <v>349</v>
+      </c>
+      <c r="F96" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>351</v>
+      </c>
+      <c r="B97" t="s">
+        <v>205</v>
+      </c>
+      <c r="C97" t="s">
+        <v>352</v>
+      </c>
+      <c r="D97" t="s">
+        <v>353</v>
+      </c>
+      <c r="E97" t="s">
+        <v>354</v>
+      </c>
+      <c r="F97" t="s">
+        <v>355</v>
       </c>
     </row>
   </sheetData>

--- a/SeattleTerminal18/Test.xlsx
+++ b/SeattleTerminal18/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="366">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -218,7 +218,7 @@
     <t>TCNU1225901</t>
   </si>
   <si>
-    <t>HLXU6372579</t>
+    <t>HLBU1962488</t>
   </si>
   <si>
     <t>AL QIBLA</t>
@@ -227,7 +227,481 @@
     <t>00012</t>
   </si>
   <si>
-    <t>DJPDXA3956119</t>
+    <t>DJPDXA3964290</t>
+  </si>
+  <si>
+    <t>7180849902</t>
+  </si>
+  <si>
+    <t>NG11903BSQS9</t>
+  </si>
+  <si>
+    <t>CAIU4456346</t>
+  </si>
+  <si>
+    <t>SM TIANJIN</t>
+  </si>
+  <si>
+    <t>01903</t>
+  </si>
+  <si>
+    <t>DJSEAA3956360</t>
+  </si>
+  <si>
+    <t>7032014741</t>
+  </si>
+  <si>
+    <t>TYO9A1276200</t>
+  </si>
+  <si>
+    <t>PCIU9467064</t>
+  </si>
+  <si>
+    <t>00013</t>
+  </si>
+  <si>
+    <t>DJSEAA3970976</t>
+  </si>
+  <si>
+    <t>7032014513</t>
+  </si>
+  <si>
+    <t>PABVSZX900860100</t>
+  </si>
+  <si>
+    <t>CBHU8489918</t>
+  </si>
+  <si>
+    <t>DJSEAA3956362</t>
+  </si>
+  <si>
+    <t>LSSU1001056</t>
+  </si>
+  <si>
+    <t>00021</t>
+  </si>
+  <si>
+    <t>DJSEAA3970789</t>
+  </si>
+  <si>
+    <t>7032015522</t>
+  </si>
+  <si>
+    <t>6204601110</t>
+  </si>
+  <si>
+    <t>SMCU1013153</t>
+  </si>
+  <si>
+    <t>DJSEAA3956364</t>
+  </si>
+  <si>
+    <t>KKFU7637215</t>
+  </si>
+  <si>
+    <t>NYK ROMULUS</t>
+  </si>
+  <si>
+    <t>00049</t>
+  </si>
+  <si>
+    <t>DJSEAA3957143</t>
+  </si>
+  <si>
+    <t>7032005017</t>
+  </si>
+  <si>
+    <t>BUDV00268600</t>
+  </si>
+  <si>
+    <t>TRHU2874880</t>
+  </si>
+  <si>
+    <t>DJSEAA3992299</t>
+  </si>
+  <si>
+    <t>7032018423</t>
+  </si>
+  <si>
+    <t>NPCA006714</t>
+  </si>
+  <si>
+    <t>TCLU8719030</t>
+  </si>
+  <si>
+    <t>DJSEAA3993630</t>
+  </si>
+  <si>
+    <t>7032018466</t>
+  </si>
+  <si>
+    <t>6206861060</t>
+  </si>
+  <si>
+    <t>ECMU4559993</t>
+  </si>
+  <si>
+    <t>7032019980</t>
+  </si>
+  <si>
+    <t>CNSE812765</t>
+  </si>
+  <si>
+    <t>TCNU8408550</t>
+  </si>
+  <si>
+    <t>DJSEAA3937652</t>
+  </si>
+  <si>
+    <t>7032005438</t>
+  </si>
+  <si>
+    <t>TPEV15244400</t>
+  </si>
+  <si>
+    <t>TCNU2284600</t>
+  </si>
+  <si>
+    <t>DJSEAA3993639</t>
+  </si>
+  <si>
+    <t>TCNU2296089</t>
+  </si>
+  <si>
+    <t>DJSEAA3993660</t>
+  </si>
+  <si>
+    <t>HAMU1181850</t>
+  </si>
+  <si>
+    <t>YM WARRANTY</t>
+  </si>
+  <si>
+    <t>001E</t>
+  </si>
+  <si>
+    <t>7032011470</t>
+  </si>
+  <si>
+    <t>SZX1903BABK9</t>
+  </si>
+  <si>
+    <t>AKCU2818591</t>
+  </si>
+  <si>
+    <t>00003</t>
+  </si>
+  <si>
+    <t>DJSEAA3964859</t>
+  </si>
+  <si>
+    <t>7032013632</t>
+  </si>
+  <si>
+    <t>6211213490</t>
+  </si>
+  <si>
+    <t>TEXU1037981</t>
+  </si>
+  <si>
+    <t>DJSEAA3970791</t>
+  </si>
+  <si>
+    <t>UACU5949640</t>
+  </si>
+  <si>
+    <t>DJPDXA3964297</t>
+  </si>
+  <si>
+    <t>TCNU1596899</t>
+  </si>
+  <si>
+    <t>00114</t>
+  </si>
+  <si>
+    <t>DJPDXA3964976</t>
+  </si>
+  <si>
+    <t>7180845770</t>
+  </si>
+  <si>
+    <t>BUD190203398</t>
+  </si>
+  <si>
+    <t>LSSU1001014</t>
+  </si>
+  <si>
+    <t>DJSEAA3970787</t>
+  </si>
+  <si>
+    <t>CBHU8611836</t>
+  </si>
+  <si>
+    <t>DJSEAA3993575</t>
+  </si>
+  <si>
+    <t>UACU3588359</t>
+  </si>
+  <si>
+    <t>DJPDXA3964979</t>
+  </si>
+  <si>
+    <t>DRYU4553650</t>
+  </si>
+  <si>
+    <t>DJSEAA3975711</t>
+  </si>
+  <si>
+    <t>7032018404</t>
+  </si>
+  <si>
+    <t>6206861890</t>
+  </si>
+  <si>
+    <t>WFHU5179623</t>
+  </si>
+  <si>
+    <t>7032009449</t>
+  </si>
+  <si>
+    <t>SZPV32312400</t>
+  </si>
+  <si>
+    <t>YMMU6080227</t>
+  </si>
+  <si>
+    <t>DJSEAA3938919</t>
+  </si>
+  <si>
+    <t>7032009755</t>
+  </si>
+  <si>
+    <t>W236229660</t>
+  </si>
+  <si>
+    <t>UACU3489443</t>
+  </si>
+  <si>
+    <t>DJPDXA3962908</t>
+  </si>
+  <si>
+    <t>7180842155</t>
+  </si>
+  <si>
+    <t>VIE190218070</t>
+  </si>
+  <si>
+    <t>PGTU4145596</t>
+  </si>
+  <si>
+    <t>DJSEAA3986446</t>
+  </si>
+  <si>
+    <t>7032013268</t>
+  </si>
+  <si>
+    <t>TS9ND0792400</t>
+  </si>
+  <si>
+    <t>APZU3455492</t>
+  </si>
+  <si>
+    <t>DJSEAA3986270</t>
+  </si>
+  <si>
+    <t>7032006847</t>
+  </si>
+  <si>
+    <t>APK0100395</t>
+  </si>
+  <si>
+    <t>CAXU8037078</t>
+  </si>
+  <si>
+    <t>DJPDXA3964283</t>
+  </si>
+  <si>
+    <t>TCKU3669897</t>
+  </si>
+  <si>
+    <t>DJSEAA3985970</t>
+  </si>
+  <si>
+    <t>7032010850</t>
+  </si>
+  <si>
+    <t>TSZH802730</t>
+  </si>
+  <si>
+    <t>CSNU6611835</t>
+  </si>
+  <si>
+    <t>OOCL KAOHSIUNG</t>
+  </si>
+  <si>
+    <t>00098</t>
+  </si>
+  <si>
+    <t>DJMCIA3894711</t>
+  </si>
+  <si>
+    <t>74D0130407</t>
+  </si>
+  <si>
+    <t>6189187470</t>
+  </si>
+  <si>
+    <t>HLBU2371197</t>
+  </si>
+  <si>
+    <t>NEW YORK EXPRESS</t>
+  </si>
+  <si>
+    <t>00033</t>
+  </si>
+  <si>
+    <t>DJSEAA3857445</t>
+  </si>
+  <si>
+    <t>7031995667</t>
+  </si>
+  <si>
+    <t>NG11901CLUX7</t>
+  </si>
+  <si>
+    <t>SEGU7329213</t>
+  </si>
+  <si>
+    <t>APL BARCELONA</t>
+  </si>
+  <si>
+    <t>DJSEAA3888187</t>
+  </si>
+  <si>
+    <t>7032006990</t>
+  </si>
+  <si>
+    <t>6204530610</t>
+  </si>
+  <si>
+    <t>BHCU3025140</t>
+  </si>
+  <si>
+    <t>OOCL OAKLAND</t>
+  </si>
+  <si>
+    <t>DJSEAA3917820</t>
+  </si>
+  <si>
+    <t>7032004941</t>
+  </si>
+  <si>
+    <t>AJR0106694</t>
+  </si>
+  <si>
+    <t>TGHU9616740</t>
+  </si>
+  <si>
+    <t>7032019873</t>
+  </si>
+  <si>
+    <t>SHZY003796</t>
+  </si>
+  <si>
+    <t>TEMU6168527</t>
+  </si>
+  <si>
+    <t>CMAU4610182</t>
+  </si>
+  <si>
+    <t>CMAU8163138</t>
+  </si>
+  <si>
+    <t>ECMU4559294</t>
+  </si>
+  <si>
+    <t>APHU7380953</t>
+  </si>
+  <si>
+    <t>SKIU2140987</t>
+  </si>
+  <si>
+    <t>TRLU6502929</t>
+  </si>
+  <si>
+    <t>DJPDXA3987567</t>
+  </si>
+  <si>
+    <t>7180847687</t>
+  </si>
+  <si>
+    <t>PRG190206900</t>
+  </si>
+  <si>
+    <t>TGHU6996251</t>
+  </si>
+  <si>
+    <t>OOCL VANCOUVER</t>
+  </si>
+  <si>
+    <t>106E</t>
+  </si>
+  <si>
+    <t>7031999264</t>
+  </si>
+  <si>
+    <t>102900011460</t>
+  </si>
+  <si>
+    <t>HLBU1852881</t>
+  </si>
+  <si>
+    <t>TOKYO EXPRESS</t>
+  </si>
+  <si>
+    <t>00010</t>
+  </si>
+  <si>
+    <t>DJPDXA3984461</t>
+  </si>
+  <si>
+    <t>7180846003</t>
+  </si>
+  <si>
+    <t>SJ2190301095</t>
+  </si>
+  <si>
+    <t>NYKU3500713</t>
+  </si>
+  <si>
+    <t>DJSEAA3956753</t>
+  </si>
+  <si>
+    <t>7031999604</t>
+  </si>
+  <si>
+    <t>LIVV12854400</t>
+  </si>
+  <si>
+    <t>HLBU8022356</t>
+  </si>
+  <si>
+    <t>60114</t>
+  </si>
+  <si>
+    <t>DJSEAA3961653</t>
+  </si>
+  <si>
+    <t>7031994952</t>
+  </si>
+  <si>
+    <t>DUS190208219</t>
+  </si>
+  <si>
+    <t>CAIU9510898</t>
+  </si>
+  <si>
+    <t>DJPDXA3956111</t>
   </si>
   <si>
     <t>7180849905</t>
@@ -236,447 +710,6 @@
     <t>NG11903BSQR8</t>
   </si>
   <si>
-    <t>HLBU1962488</t>
-  </si>
-  <si>
-    <t>DJPDXA3964290</t>
-  </si>
-  <si>
-    <t>7180849902</t>
-  </si>
-  <si>
-    <t>NG11903BSQS9</t>
-  </si>
-  <si>
-    <t>CAIU4456346</t>
-  </si>
-  <si>
-    <t>SM TIANJIN</t>
-  </si>
-  <si>
-    <t>01903</t>
-  </si>
-  <si>
-    <t>DJSEAA3956360</t>
-  </si>
-  <si>
-    <t>7032014741</t>
-  </si>
-  <si>
-    <t>TYO9A1276200</t>
-  </si>
-  <si>
-    <t>PCIU9467064</t>
-  </si>
-  <si>
-    <t>00013</t>
-  </si>
-  <si>
-    <t>DJSEAA3970976</t>
-  </si>
-  <si>
-    <t>7032014513</t>
-  </si>
-  <si>
-    <t>PABVSZX900860100</t>
-  </si>
-  <si>
-    <t>CBHU8489918</t>
-  </si>
-  <si>
-    <t>DJSEAA3956362</t>
-  </si>
-  <si>
-    <t>LSSU1001056</t>
-  </si>
-  <si>
-    <t>00021</t>
-  </si>
-  <si>
-    <t>DJSEAA3970789</t>
-  </si>
-  <si>
-    <t>7032015522</t>
-  </si>
-  <si>
-    <t>6204601110</t>
-  </si>
-  <si>
-    <t>SMCU1013153</t>
-  </si>
-  <si>
-    <t>DJSEAA3956364</t>
-  </si>
-  <si>
-    <t>KKFU7637215</t>
-  </si>
-  <si>
-    <t>NYK ROMULUS</t>
-  </si>
-  <si>
-    <t>00049</t>
-  </si>
-  <si>
-    <t>DJSEAA3957143</t>
-  </si>
-  <si>
-    <t>7032005017</t>
-  </si>
-  <si>
-    <t>BUDV00268600</t>
-  </si>
-  <si>
-    <t>ECMU4559993</t>
-  </si>
-  <si>
-    <t>7032019980</t>
-  </si>
-  <si>
-    <t>CNSE812765</t>
-  </si>
-  <si>
-    <t>TCNU8408550</t>
-  </si>
-  <si>
-    <t>DJSEAA3937652</t>
-  </si>
-  <si>
-    <t>7032005438</t>
-  </si>
-  <si>
-    <t>TPEV15244400</t>
-  </si>
-  <si>
-    <t>AKCU2818591</t>
-  </si>
-  <si>
-    <t>00003</t>
-  </si>
-  <si>
-    <t>DJSEAA3964859</t>
-  </si>
-  <si>
-    <t>7032013632</t>
-  </si>
-  <si>
-    <t>6211213490</t>
-  </si>
-  <si>
-    <t>TEXU1037981</t>
-  </si>
-  <si>
-    <t>DJSEAA3970791</t>
-  </si>
-  <si>
-    <t>UACU5949640</t>
-  </si>
-  <si>
-    <t>DJPDXA3964297</t>
-  </si>
-  <si>
-    <t>TCNU1596899</t>
-  </si>
-  <si>
-    <t>00114</t>
-  </si>
-  <si>
-    <t>DJPDXA3964976</t>
-  </si>
-  <si>
-    <t>7180845770</t>
-  </si>
-  <si>
-    <t>BUD190203398</t>
-  </si>
-  <si>
-    <t>FCIU8836677</t>
-  </si>
-  <si>
-    <t>OOCL OAKLAND</t>
-  </si>
-  <si>
-    <t>DJCVGA3898671</t>
-  </si>
-  <si>
-    <t>7200351706</t>
-  </si>
-  <si>
-    <t>APLUCKL0112302</t>
-  </si>
-  <si>
-    <t>LSSU1001014</t>
-  </si>
-  <si>
-    <t>DJSEAA3970787</t>
-  </si>
-  <si>
-    <t>UACU3588359</t>
-  </si>
-  <si>
-    <t>DJPDXA3964979</t>
-  </si>
-  <si>
-    <t>DRYU4553650</t>
-  </si>
-  <si>
-    <t>DJSEAA3975711</t>
-  </si>
-  <si>
-    <t>7032018404</t>
-  </si>
-  <si>
-    <t>6206861890</t>
-  </si>
-  <si>
-    <t>WFHU5179623</t>
-  </si>
-  <si>
-    <t>YM WARRANTY</t>
-  </si>
-  <si>
-    <t>001E</t>
-  </si>
-  <si>
-    <t>7032009449</t>
-  </si>
-  <si>
-    <t>SZPV32312400</t>
-  </si>
-  <si>
-    <t>YMMU6080227</t>
-  </si>
-  <si>
-    <t>DJSEAA3938919</t>
-  </si>
-  <si>
-    <t>7032009755</t>
-  </si>
-  <si>
-    <t>W236229660</t>
-  </si>
-  <si>
-    <t>UACU3489443</t>
-  </si>
-  <si>
-    <t>DJPDXA3962908</t>
-  </si>
-  <si>
-    <t>7180842155</t>
-  </si>
-  <si>
-    <t>VIE190218070</t>
-  </si>
-  <si>
-    <t>PGTU4145596</t>
-  </si>
-  <si>
-    <t>DJSEAA3986446</t>
-  </si>
-  <si>
-    <t>7032013268</t>
-  </si>
-  <si>
-    <t>TS9ND0792400</t>
-  </si>
-  <si>
-    <t>APZU3455492</t>
-  </si>
-  <si>
-    <t>DJSEAA3986270</t>
-  </si>
-  <si>
-    <t>7032006847</t>
-  </si>
-  <si>
-    <t>APK0100395</t>
-  </si>
-  <si>
-    <t>CAXU8037078</t>
-  </si>
-  <si>
-    <t>DJPDXA3964283</t>
-  </si>
-  <si>
-    <t>TCKU3669897</t>
-  </si>
-  <si>
-    <t>DJSEAA3985970</t>
-  </si>
-  <si>
-    <t>7032010850</t>
-  </si>
-  <si>
-    <t>TSZH802730</t>
-  </si>
-  <si>
-    <t>CSNU6611835</t>
-  </si>
-  <si>
-    <t>OOCL KAOHSIUNG</t>
-  </si>
-  <si>
-    <t>00098</t>
-  </si>
-  <si>
-    <t>DJMCIA3894711</t>
-  </si>
-  <si>
-    <t>74D0130407</t>
-  </si>
-  <si>
-    <t>6189187470</t>
-  </si>
-  <si>
-    <t>HLBU2371197</t>
-  </si>
-  <si>
-    <t>NEW YORK EXPRESS</t>
-  </si>
-  <si>
-    <t>00033</t>
-  </si>
-  <si>
-    <t>DJSEAA3857445</t>
-  </si>
-  <si>
-    <t>7031995667</t>
-  </si>
-  <si>
-    <t>NG11901CLUX7</t>
-  </si>
-  <si>
-    <t>SEGU7329213</t>
-  </si>
-  <si>
-    <t>APL BARCELONA</t>
-  </si>
-  <si>
-    <t>DJSEAA3888187</t>
-  </si>
-  <si>
-    <t>7032006990</t>
-  </si>
-  <si>
-    <t>6204530610</t>
-  </si>
-  <si>
-    <t>BHCU3025140</t>
-  </si>
-  <si>
-    <t>DJSEAA3917820</t>
-  </si>
-  <si>
-    <t>7032004941</t>
-  </si>
-  <si>
-    <t>AJR0106694</t>
-  </si>
-  <si>
-    <t>TGHU9616740</t>
-  </si>
-  <si>
-    <t>7032019873</t>
-  </si>
-  <si>
-    <t>SHZY003796</t>
-  </si>
-  <si>
-    <t>TEMU6168527</t>
-  </si>
-  <si>
-    <t>CMAU4610182</t>
-  </si>
-  <si>
-    <t>CMAU8163138</t>
-  </si>
-  <si>
-    <t>ECMU4559294</t>
-  </si>
-  <si>
-    <t>APHU7380953</t>
-  </si>
-  <si>
-    <t>SKIU2140987</t>
-  </si>
-  <si>
-    <t>TRLU6502929</t>
-  </si>
-  <si>
-    <t>DJPDXA3987567</t>
-  </si>
-  <si>
-    <t>7180847687</t>
-  </si>
-  <si>
-    <t>PRG190206900</t>
-  </si>
-  <si>
-    <t>TGHU6996251</t>
-  </si>
-  <si>
-    <t>OOCL VANCOUVER</t>
-  </si>
-  <si>
-    <t>106E</t>
-  </si>
-  <si>
-    <t>7031999264</t>
-  </si>
-  <si>
-    <t>102900011460</t>
-  </si>
-  <si>
-    <t>HLBU1852881</t>
-  </si>
-  <si>
-    <t>TOKYO EXPRESS</t>
-  </si>
-  <si>
-    <t>00010</t>
-  </si>
-  <si>
-    <t>DJPDXA3984461</t>
-  </si>
-  <si>
-    <t>7180846003</t>
-  </si>
-  <si>
-    <t>SJ2190301095</t>
-  </si>
-  <si>
-    <t>NYKU3500713</t>
-  </si>
-  <si>
-    <t>DJSEAA3956753</t>
-  </si>
-  <si>
-    <t>7031999604</t>
-  </si>
-  <si>
-    <t>LIVV12854400</t>
-  </si>
-  <si>
-    <t>HLBU8022356</t>
-  </si>
-  <si>
-    <t>60114</t>
-  </si>
-  <si>
-    <t>DJSEAA3961653</t>
-  </si>
-  <si>
-    <t>7031994952</t>
-  </si>
-  <si>
-    <t>DUS190208219</t>
-  </si>
-  <si>
-    <t>CAIU9510898</t>
-  </si>
-  <si>
-    <t>DJPDXA3956111</t>
-  </si>
-  <si>
     <t>MOAU6789281</t>
   </si>
   <si>
@@ -752,24 +785,6 @@
     <t>NPCA006674</t>
   </si>
   <si>
-    <t>DFSU2462784</t>
-  </si>
-  <si>
-    <t>SM MUMBAI</t>
-  </si>
-  <si>
-    <t>01902</t>
-  </si>
-  <si>
-    <t>DJSEAA3938285</t>
-  </si>
-  <si>
-    <t>7032011526</t>
-  </si>
-  <si>
-    <t>SEL9A8686400</t>
-  </si>
-  <si>
     <t>PCIU0157767</t>
   </si>
   <si>
@@ -797,12 +812,6 @@
     <t>TPEV15494400</t>
   </si>
   <si>
-    <t>CAIU9692832</t>
-  </si>
-  <si>
-    <t>DJCVGA3898670</t>
-  </si>
-  <si>
     <t>GESU1308137</t>
   </si>
   <si>
@@ -857,27 +866,12 @@
     <t>TPEV13753700</t>
   </si>
   <si>
-    <t>HAMU1181850</t>
-  </si>
-  <si>
     <t>7032008320</t>
   </si>
   <si>
     <t>SZX1903AQVS3</t>
   </si>
   <si>
-    <t>EGHU3346411</t>
-  </si>
-  <si>
-    <t>DJSEAA3926901</t>
-  </si>
-  <si>
-    <t>7032003077</t>
-  </si>
-  <si>
-    <t>050900214747</t>
-  </si>
-  <si>
     <t>APZU4635185</t>
   </si>
   <si>
@@ -1080,6 +1074,42 @@
   </si>
   <si>
     <t>GOA190311330</t>
+  </si>
+  <si>
+    <t>MSKU1938749</t>
+  </si>
+  <si>
+    <t>01010</t>
+  </si>
+  <si>
+    <t>DJSEAA3993769</t>
+  </si>
+  <si>
+    <t>7032018841</t>
+  </si>
+  <si>
+    <t>29003AFXXRXY</t>
+  </si>
+  <si>
+    <t>CGMU5044025</t>
+  </si>
+  <si>
+    <t>ANL ELAROO</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>7180849000</t>
+  </si>
+  <si>
+    <t>ANLCACD0399550</t>
+  </si>
+  <si>
+    <t>MRKU3648557</t>
+  </si>
+  <si>
+    <t>DJSEAA3993768</t>
   </si>
 </sst>
 </file>
@@ -1124,7 +1154,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1455,130 +1485,130 @@
         <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D19" t="s">
         <v>86</v>
       </c>
       <c r="E19" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F19" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" t="s">
         <v>89</v>
       </c>
-      <c r="B20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>90</v>
       </c>
-      <c r="E20" t="s">
-        <v>82</v>
-      </c>
       <c r="F20" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="D21" t="s">
         <v>93</v>
       </c>
       <c r="E21" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F21" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" t="s">
         <v>96</v>
-      </c>
-      <c r="B22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" t="s">
-        <v>80</v>
       </c>
       <c r="D22" t="s">
         <v>97</v>
       </c>
       <c r="E22" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="F22" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B23" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
         <v>101</v>
@@ -1598,30 +1628,30 @@
         <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="D24" t="s">
         <v>105</v>
       </c>
       <c r="E24" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F24" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D25" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E25" t="s">
         <v>109</v>
@@ -1635,67 +1665,67 @@
         <v>111</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" t="s">
         <v>112</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>113</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>114</v>
-      </c>
-      <c r="F26" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B27" t="s">
         <v>62</v>
       </c>
       <c r="C27" t="s">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E27" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="F27" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
         <v>118</v>
       </c>
-      <c r="B28" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" t="s">
-        <v>119</v>
-      </c>
       <c r="E28" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="F28" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>119</v>
+      </c>
+      <c r="B29" t="s">
         <v>120</v>
-      </c>
-      <c r="B29" t="s">
-        <v>35</v>
       </c>
       <c r="C29" t="s">
         <v>121</v>
@@ -1704,81 +1734,81 @@
         <v>122</v>
       </c>
       <c r="E29" t="s">
+        <v>122</v>
+      </c>
+      <c r="F29" t="s">
         <v>123</v>
-      </c>
-      <c r="F29" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>124</v>
+      </c>
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" t="s">
         <v>125</v>
       </c>
-      <c r="B30" t="s">
+      <c r="D30" t="s">
         <v>126</v>
       </c>
-      <c r="C30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>127</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>128</v>
-      </c>
-      <c r="F30" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B31" t="s">
         <v>62</v>
       </c>
       <c r="C31" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E31" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F31" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" t="s">
         <v>132</v>
       </c>
-      <c r="B32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" t="s">
-        <v>121</v>
-      </c>
-      <c r="D32" t="s">
-        <v>133</v>
-      </c>
       <c r="E32" t="s">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="F32" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" t="s">
         <v>134</v>
-      </c>
-      <c r="B33" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" t="s">
-        <v>8</v>
       </c>
       <c r="D33" t="s">
         <v>135</v>
@@ -1795,104 +1825,104 @@
         <v>138</v>
       </c>
       <c r="B34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" t="s">
         <v>139</v>
       </c>
-      <c r="C34" t="s">
-        <v>140</v>
-      </c>
-      <c r="D34" t="s">
-        <v>141</v>
-      </c>
       <c r="E34" t="s">
-        <v>141</v>
+        <v>90</v>
       </c>
       <c r="F34" t="s">
-        <v>142</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E35" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="F35" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B36" t="s">
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="D36" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E36" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="F36" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B37" t="s">
-        <v>139</v>
+        <v>62</v>
       </c>
       <c r="C37" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E37" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F37" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B38" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="C38" t="s">
-        <v>26</v>
+        <v>121</v>
       </c>
       <c r="D38" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E38" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F38" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B39" t="s">
         <v>69</v>
@@ -1901,198 +1931,198 @@
         <v>70</v>
       </c>
       <c r="D39" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E39" t="s">
-        <v>76</v>
+        <v>153</v>
       </c>
       <c r="F39" t="s">
-        <v>77</v>
+        <v>154</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="D40" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E40" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F40" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B41" t="s">
-        <v>166</v>
+        <v>120</v>
       </c>
       <c r="C41" t="s">
-        <v>167</v>
+        <v>26</v>
       </c>
       <c r="D41" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E41" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F41" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B42" t="s">
-        <v>172</v>
+        <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>173</v>
+        <v>26</v>
       </c>
       <c r="D42" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="E42" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F42" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B43" t="s">
-        <v>178</v>
+        <v>69</v>
       </c>
       <c r="C43" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="D43" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="E43" t="s">
-        <v>180</v>
+        <v>72</v>
       </c>
       <c r="F43" t="s">
-        <v>181</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="B44" t="s">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="C44" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D44" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="E44" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="F44" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
+        <v>174</v>
       </c>
       <c r="C45" t="s">
-        <v>63</v>
+        <v>175</v>
       </c>
       <c r="D45" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="E45" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F45" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B46" t="s">
-        <v>62</v>
+        <v>180</v>
       </c>
       <c r="C46" t="s">
-        <v>63</v>
+        <v>181</v>
       </c>
       <c r="D46" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E46" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F46" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B47" t="s">
-        <v>62</v>
+        <v>186</v>
       </c>
       <c r="C47" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="D47" t="s">
         <v>187</v>
       </c>
       <c r="E47" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F47" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>190</v>
+      </c>
+      <c r="B48" t="s">
         <v>191</v>
       </c>
-      <c r="B48" t="s">
-        <v>62</v>
-      </c>
       <c r="C48" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="D48" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E48" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F48" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B49" t="s">
         <v>62</v>
@@ -2101,18 +2131,18 @@
         <v>63</v>
       </c>
       <c r="D49" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="E49" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="F49" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B50" t="s">
         <v>62</v>
@@ -2121,18 +2151,18 @@
         <v>63</v>
       </c>
       <c r="D50" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="E50" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="F50" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B51" t="s">
         <v>62</v>
@@ -2141,198 +2171,198 @@
         <v>63</v>
       </c>
       <c r="D51" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="E51" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="F51" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B52" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="C52" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="D52" t="s">
         <v>196</v>
       </c>
       <c r="E52" t="s">
+        <v>196</v>
+      </c>
+      <c r="F52" t="s">
         <v>197</v>
-      </c>
-      <c r="F52" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B53" t="s">
-        <v>200</v>
+        <v>62</v>
       </c>
       <c r="C53" t="s">
-        <v>201</v>
+        <v>63</v>
       </c>
       <c r="D53" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E53" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F53" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B54" t="s">
-        <v>205</v>
+        <v>62</v>
       </c>
       <c r="C54" t="s">
-        <v>206</v>
+        <v>63</v>
       </c>
       <c r="D54" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="E54" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="F54" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B55" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="D55" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="E55" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="F55" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B56" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="C56" t="s">
-        <v>215</v>
+        <v>96</v>
       </c>
       <c r="D56" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="E56" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="F56" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="B57" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="C57" t="s">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="D57" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="E57" t="s">
-        <v>72</v>
+        <v>211</v>
       </c>
       <c r="F57" t="s">
-        <v>73</v>
+        <v>212</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B58" t="s">
-        <v>139</v>
+        <v>214</v>
       </c>
       <c r="C58" t="s">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="D58" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E58" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F58" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B59" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="C59" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="D59" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E59" t="s">
-        <v>72</v>
+        <v>221</v>
       </c>
       <c r="F59" t="s">
-        <v>73</v>
+        <v>222</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>223</v>
+      </c>
+      <c r="B60" t="s">
+        <v>35</v>
+      </c>
+      <c r="C60" t="s">
+        <v>224</v>
+      </c>
+      <c r="D60" t="s">
+        <v>225</v>
+      </c>
+      <c r="E60" t="s">
         <v>226</v>
       </c>
-      <c r="B60" t="s">
-        <v>126</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="F60" t="s">
         <v>227</v>
-      </c>
-      <c r="D60" t="s">
-        <v>228</v>
-      </c>
-      <c r="E60" t="s">
-        <v>229</v>
-      </c>
-      <c r="F60" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B61" t="s">
         <v>69</v>
@@ -2341,38 +2371,38 @@
         <v>70</v>
       </c>
       <c r="D61" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E61" t="s">
-        <v>76</v>
+        <v>230</v>
       </c>
       <c r="F61" t="s">
-        <v>77</v>
+        <v>231</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>232</v>
+      </c>
+      <c r="B62" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62" t="s">
+        <v>121</v>
+      </c>
+      <c r="D62" t="s">
         <v>233</v>
       </c>
-      <c r="B62" t="s">
-        <v>166</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="E62" t="s">
+        <v>233</v>
+      </c>
+      <c r="F62" t="s">
         <v>234</v>
-      </c>
-      <c r="D62" t="s">
-        <v>235</v>
-      </c>
-      <c r="E62" t="s">
-        <v>236</v>
-      </c>
-      <c r="F62" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B63" t="s">
         <v>69</v>
@@ -2381,78 +2411,78 @@
         <v>70</v>
       </c>
       <c r="D63" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E63" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="F63" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B64" t="s">
-        <v>56</v>
+        <v>191</v>
       </c>
       <c r="C64" t="s">
-        <v>57</v>
+        <v>238</v>
       </c>
       <c r="D64" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E64" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F64" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B65" t="s">
-        <v>247</v>
+        <v>69</v>
       </c>
       <c r="C65" t="s">
-        <v>248</v>
+        <v>70</v>
       </c>
       <c r="D65" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E65" t="s">
-        <v>250</v>
+        <v>72</v>
       </c>
       <c r="F65" t="s">
-        <v>251</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B66" t="s">
-        <v>56</v>
+        <v>174</v>
       </c>
       <c r="C66" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D66" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E66" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="F66" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B67" t="s">
         <v>69</v>
@@ -2461,118 +2491,118 @@
         <v>70</v>
       </c>
       <c r="D67" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E67" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="F67" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B68" t="s">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="D68" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="E68" t="s">
-        <v>128</v>
+        <v>255</v>
       </c>
       <c r="F68" t="s">
-        <v>129</v>
+        <v>256</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B69" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C69" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D69" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E69" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F69" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B70" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>268</v>
+        <v>70</v>
       </c>
       <c r="D70" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E70" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F70" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B71" t="s">
         <v>69</v>
       </c>
       <c r="C71" t="s">
-        <v>70</v>
+        <v>267</v>
       </c>
       <c r="D71" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E71" t="s">
-        <v>72</v>
+        <v>268</v>
       </c>
       <c r="F71" t="s">
-        <v>73</v>
+        <v>269</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
+        <v>270</v>
+      </c>
+      <c r="B72" t="s">
+        <v>56</v>
+      </c>
+      <c r="C72" t="s">
+        <v>271</v>
+      </c>
+      <c r="D72" t="s">
+        <v>272</v>
+      </c>
+      <c r="E72" t="s">
+        <v>272</v>
+      </c>
+      <c r="F72" t="s">
         <v>273</v>
-      </c>
-      <c r="B72" t="s">
-        <v>166</v>
-      </c>
-      <c r="C72" t="s">
-        <v>167</v>
-      </c>
-      <c r="D72" t="s">
-        <v>274</v>
-      </c>
-      <c r="E72" t="s">
-        <v>275</v>
-      </c>
-      <c r="F72" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B73" t="s">
         <v>69</v>
@@ -2581,298 +2611,298 @@
         <v>70</v>
       </c>
       <c r="D73" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E73" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="F73" t="s">
-        <v>280</v>
+        <v>231</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B74" t="s">
-        <v>69</v>
+        <v>174</v>
       </c>
       <c r="C74" t="s">
-        <v>264</v>
+        <v>175</v>
       </c>
       <c r="D74" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E74" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F74" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B75" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="C75" t="s">
-        <v>227</v>
+        <v>70</v>
       </c>
       <c r="D75" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E75" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F75" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>288</v>
+        <v>119</v>
       </c>
       <c r="B76" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="C76" t="s">
-        <v>57</v>
+        <v>267</v>
       </c>
       <c r="D76" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E76" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="F76" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B77" t="s">
         <v>56</v>
       </c>
       <c r="C77" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="D77" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E77" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F77" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B78" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="C78" t="s">
-        <v>121</v>
+        <v>26</v>
       </c>
       <c r="D78" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E78" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F78" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B79" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C79" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="D79" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E79" t="s">
-        <v>76</v>
+        <v>296</v>
       </c>
       <c r="F79" t="s">
-        <v>77</v>
+        <v>297</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B80" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="C80" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="D80" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E80" t="s">
-        <v>304</v>
+        <v>72</v>
       </c>
       <c r="F80" t="s">
-        <v>305</v>
+        <v>73</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B81" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C81" t="s">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="D81" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="E81" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="F81" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B82" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C82" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D82" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E82" t="s">
-        <v>76</v>
+        <v>306</v>
       </c>
       <c r="F82" t="s">
-        <v>77</v>
+        <v>307</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B83" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="C83" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D83" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E83" t="s">
-        <v>314</v>
+        <v>72</v>
       </c>
       <c r="F83" t="s">
-        <v>315</v>
+        <v>73</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B84" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="C84" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="D84" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E84" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F84" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B85" t="s">
-        <v>320</v>
+        <v>62</v>
       </c>
       <c r="C85" t="s">
-        <v>321</v>
+        <v>63</v>
       </c>
       <c r="D85" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="E85" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F85" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B86" t="s">
-        <v>139</v>
+        <v>318</v>
       </c>
       <c r="C86" t="s">
-        <v>26</v>
+        <v>319</v>
       </c>
       <c r="D86" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E86" t="s">
-        <v>153</v>
+        <v>321</v>
       </c>
       <c r="F86" t="s">
-        <v>154</v>
+        <v>322</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B87" t="s">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="C87" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="D87" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E87" t="s">
-        <v>76</v>
+        <v>161</v>
       </c>
       <c r="F87" t="s">
-        <v>77</v>
+        <v>162</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B88" t="s">
         <v>69</v>
@@ -2881,18 +2911,18 @@
         <v>70</v>
       </c>
       <c r="D88" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E88" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F88" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B89" t="s">
         <v>69</v>
@@ -2901,173 +2931,253 @@
         <v>70</v>
       </c>
       <c r="D89" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E89" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F89" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B90" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="C90" t="s">
-        <v>253</v>
+        <v>70</v>
       </c>
       <c r="D90" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E90" t="s">
-        <v>335</v>
+        <v>72</v>
       </c>
       <c r="F90" t="s">
-        <v>336</v>
+        <v>73</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B91" t="s">
         <v>56</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>258</v>
       </c>
       <c r="D91" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="E91" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F91" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B92" t="s">
-        <v>320</v>
+        <v>56</v>
       </c>
       <c r="C92" t="s">
         <v>8</v>
       </c>
       <c r="D92" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="E92" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="F92" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B93" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C93" t="s">
         <v>8</v>
       </c>
       <c r="D93" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E93" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F93" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B94" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C94" t="s">
         <v>8</v>
       </c>
       <c r="D94" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E94" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F94" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B95" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C95" t="s">
         <v>8</v>
       </c>
       <c r="D95" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E95" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F95" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B96" t="s">
-        <v>56</v>
+        <v>318</v>
       </c>
       <c r="C96" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="D96" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="E96" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="F96" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
+        <v>345</v>
+      </c>
+      <c r="B97" t="s">
+        <v>56</v>
+      </c>
+      <c r="C97" t="s">
+        <v>57</v>
+      </c>
+      <c r="D97" t="s">
+        <v>346</v>
+      </c>
+      <c r="E97" t="s">
+        <v>347</v>
+      </c>
+      <c r="F97" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>349</v>
+      </c>
+      <c r="B98" t="s">
+        <v>214</v>
+      </c>
+      <c r="C98" t="s">
+        <v>350</v>
+      </c>
+      <c r="D98" t="s">
         <v>351</v>
       </c>
-      <c r="B97" t="s">
-        <v>205</v>
-      </c>
-      <c r="C97" t="s">
+      <c r="E98" t="s">
         <v>352</v>
       </c>
-      <c r="D97" t="s">
+      <c r="F98" t="s">
         <v>353</v>
       </c>
-      <c r="E97" t="s">
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
         <v>354</v>
       </c>
-      <c r="F97" t="s">
+      <c r="B99" t="s">
+        <v>214</v>
+      </c>
+      <c r="C99" t="s">
         <v>355</v>
+      </c>
+      <c r="D99" t="s">
+        <v>356</v>
+      </c>
+      <c r="E99" t="s">
+        <v>357</v>
+      </c>
+      <c r="F99" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>359</v>
+      </c>
+      <c r="B100" t="s">
+        <v>360</v>
+      </c>
+      <c r="C100" t="s">
+        <v>361</v>
+      </c>
+      <c r="D100" t="s">
+        <v>362</v>
+      </c>
+      <c r="E100" t="s">
+        <v>362</v>
+      </c>
+      <c r="F100" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>364</v>
+      </c>
+      <c r="B101" t="s">
+        <v>214</v>
+      </c>
+      <c r="C101" t="s">
+        <v>355</v>
+      </c>
+      <c r="D101" t="s">
+        <v>365</v>
+      </c>
+      <c r="E101" t="s">
+        <v>357</v>
+      </c>
+      <c r="F101" t="s">
+        <v>358</v>
       </c>
     </row>
   </sheetData>

--- a/SeattleTerminal18/Test.xlsx
+++ b/SeattleTerminal18/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="339">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -218,7 +218,166 @@
     <t>TCNU1225901</t>
   </si>
   <si>
-    <t>HLBU1962488</t>
+    <t>CAIU4456346</t>
+  </si>
+  <si>
+    <t>SM TIANJIN</t>
+  </si>
+  <si>
+    <t>01903</t>
+  </si>
+  <si>
+    <t>DJSEAA3956360</t>
+  </si>
+  <si>
+    <t>7032014741</t>
+  </si>
+  <si>
+    <t>TYO9A1276200</t>
+  </si>
+  <si>
+    <t>PCIU9467064</t>
+  </si>
+  <si>
+    <t>00013</t>
+  </si>
+  <si>
+    <t>DJSEAA3970976</t>
+  </si>
+  <si>
+    <t>7032014513</t>
+  </si>
+  <si>
+    <t>PABVSZX900860100</t>
+  </si>
+  <si>
+    <t>CBHU8489918</t>
+  </si>
+  <si>
+    <t>DJSEAA3956362</t>
+  </si>
+  <si>
+    <t>LSSU1001056</t>
+  </si>
+  <si>
+    <t>00021</t>
+  </si>
+  <si>
+    <t>DJSEAA3970789</t>
+  </si>
+  <si>
+    <t>7032015522</t>
+  </si>
+  <si>
+    <t>6204601110</t>
+  </si>
+  <si>
+    <t>SMCU1013153</t>
+  </si>
+  <si>
+    <t>DJSEAA3956364</t>
+  </si>
+  <si>
+    <t>KKFU7637215</t>
+  </si>
+  <si>
+    <t>NYK ROMULUS</t>
+  </si>
+  <si>
+    <t>00049</t>
+  </si>
+  <si>
+    <t>DJSEAA3957143</t>
+  </si>
+  <si>
+    <t>7032005017</t>
+  </si>
+  <si>
+    <t>BUDV00268600</t>
+  </si>
+  <si>
+    <t>TRHU2874880</t>
+  </si>
+  <si>
+    <t>DJSEAA3992299</t>
+  </si>
+  <si>
+    <t>7032018423</t>
+  </si>
+  <si>
+    <t>NPCA006714</t>
+  </si>
+  <si>
+    <t>TCLU8719030</t>
+  </si>
+  <si>
+    <t>DJSEAA3993630</t>
+  </si>
+  <si>
+    <t>7032018466</t>
+  </si>
+  <si>
+    <t>6206861060</t>
+  </si>
+  <si>
+    <t>ECMU4559993</t>
+  </si>
+  <si>
+    <t>7032019980</t>
+  </si>
+  <si>
+    <t>CNSE812765</t>
+  </si>
+  <si>
+    <t>TCNU2284600</t>
+  </si>
+  <si>
+    <t>DJSEAA3993639</t>
+  </si>
+  <si>
+    <t>TCNU2296089</t>
+  </si>
+  <si>
+    <t>DJSEAA3993660</t>
+  </si>
+  <si>
+    <t>HAMU1181850</t>
+  </si>
+  <si>
+    <t>YM WARRANTY</t>
+  </si>
+  <si>
+    <t>001E</t>
+  </si>
+  <si>
+    <t>7032011470</t>
+  </si>
+  <si>
+    <t>SZX1903BABK9</t>
+  </si>
+  <si>
+    <t>AKCU2818591</t>
+  </si>
+  <si>
+    <t>00003</t>
+  </si>
+  <si>
+    <t>DJSEAA3964859</t>
+  </si>
+  <si>
+    <t>7032013632</t>
+  </si>
+  <si>
+    <t>6211213490</t>
+  </si>
+  <si>
+    <t>TEXU1037981</t>
+  </si>
+  <si>
+    <t>DJSEAA3970791</t>
+  </si>
+  <si>
+    <t>UACU5949640</t>
   </si>
   <si>
     <t>AL QIBLA</t>
@@ -227,7 +386,7 @@
     <t>00012</t>
   </si>
   <si>
-    <t>DJPDXA3964290</t>
+    <t>DJPDXA3964297</t>
   </si>
   <si>
     <t>7180849902</t>
@@ -236,183 +395,6 @@
     <t>NG11903BSQS9</t>
   </si>
   <si>
-    <t>CAIU4456346</t>
-  </si>
-  <si>
-    <t>SM TIANJIN</t>
-  </si>
-  <si>
-    <t>01903</t>
-  </si>
-  <si>
-    <t>DJSEAA3956360</t>
-  </si>
-  <si>
-    <t>7032014741</t>
-  </si>
-  <si>
-    <t>TYO9A1276200</t>
-  </si>
-  <si>
-    <t>PCIU9467064</t>
-  </si>
-  <si>
-    <t>00013</t>
-  </si>
-  <si>
-    <t>DJSEAA3970976</t>
-  </si>
-  <si>
-    <t>7032014513</t>
-  </si>
-  <si>
-    <t>PABVSZX900860100</t>
-  </si>
-  <si>
-    <t>CBHU8489918</t>
-  </si>
-  <si>
-    <t>DJSEAA3956362</t>
-  </si>
-  <si>
-    <t>LSSU1001056</t>
-  </si>
-  <si>
-    <t>00021</t>
-  </si>
-  <si>
-    <t>DJSEAA3970789</t>
-  </si>
-  <si>
-    <t>7032015522</t>
-  </si>
-  <si>
-    <t>6204601110</t>
-  </si>
-  <si>
-    <t>SMCU1013153</t>
-  </si>
-  <si>
-    <t>DJSEAA3956364</t>
-  </si>
-  <si>
-    <t>KKFU7637215</t>
-  </si>
-  <si>
-    <t>NYK ROMULUS</t>
-  </si>
-  <si>
-    <t>00049</t>
-  </si>
-  <si>
-    <t>DJSEAA3957143</t>
-  </si>
-  <si>
-    <t>7032005017</t>
-  </si>
-  <si>
-    <t>BUDV00268600</t>
-  </si>
-  <si>
-    <t>TRHU2874880</t>
-  </si>
-  <si>
-    <t>DJSEAA3992299</t>
-  </si>
-  <si>
-    <t>7032018423</t>
-  </si>
-  <si>
-    <t>NPCA006714</t>
-  </si>
-  <si>
-    <t>TCLU8719030</t>
-  </si>
-  <si>
-    <t>DJSEAA3993630</t>
-  </si>
-  <si>
-    <t>7032018466</t>
-  </si>
-  <si>
-    <t>6206861060</t>
-  </si>
-  <si>
-    <t>ECMU4559993</t>
-  </si>
-  <si>
-    <t>7032019980</t>
-  </si>
-  <si>
-    <t>CNSE812765</t>
-  </si>
-  <si>
-    <t>TCNU8408550</t>
-  </si>
-  <si>
-    <t>DJSEAA3937652</t>
-  </si>
-  <si>
-    <t>7032005438</t>
-  </si>
-  <si>
-    <t>TPEV15244400</t>
-  </si>
-  <si>
-    <t>TCNU2284600</t>
-  </si>
-  <si>
-    <t>DJSEAA3993639</t>
-  </si>
-  <si>
-    <t>TCNU2296089</t>
-  </si>
-  <si>
-    <t>DJSEAA3993660</t>
-  </si>
-  <si>
-    <t>HAMU1181850</t>
-  </si>
-  <si>
-    <t>YM WARRANTY</t>
-  </si>
-  <si>
-    <t>001E</t>
-  </si>
-  <si>
-    <t>7032011470</t>
-  </si>
-  <si>
-    <t>SZX1903BABK9</t>
-  </si>
-  <si>
-    <t>AKCU2818591</t>
-  </si>
-  <si>
-    <t>00003</t>
-  </si>
-  <si>
-    <t>DJSEAA3964859</t>
-  </si>
-  <si>
-    <t>7032013632</t>
-  </si>
-  <si>
-    <t>6211213490</t>
-  </si>
-  <si>
-    <t>TEXU1037981</t>
-  </si>
-  <si>
-    <t>DJSEAA3970791</t>
-  </si>
-  <si>
-    <t>UACU5949640</t>
-  </si>
-  <si>
-    <t>DJPDXA3964297</t>
-  </si>
-  <si>
     <t>TCNU1596899</t>
   </si>
   <si>
@@ -467,18 +449,6 @@
     <t>SZPV32312400</t>
   </si>
   <si>
-    <t>YMMU6080227</t>
-  </si>
-  <si>
-    <t>DJSEAA3938919</t>
-  </si>
-  <si>
-    <t>7032009755</t>
-  </si>
-  <si>
-    <t>W236229660</t>
-  </si>
-  <si>
     <t>UACU3489443</t>
   </si>
   <si>
@@ -515,12 +485,6 @@
     <t>APK0100395</t>
   </si>
   <si>
-    <t>CAXU8037078</t>
-  </si>
-  <si>
-    <t>DJPDXA3964283</t>
-  </si>
-  <si>
     <t>TCKU3669897</t>
   </si>
   <si>
@@ -638,21 +602,6 @@
     <t>PRG190206900</t>
   </si>
   <si>
-    <t>TGHU6996251</t>
-  </si>
-  <si>
-    <t>OOCL VANCOUVER</t>
-  </si>
-  <si>
-    <t>106E</t>
-  </si>
-  <si>
-    <t>7031999264</t>
-  </si>
-  <si>
-    <t>102900011460</t>
-  </si>
-  <si>
     <t>HLBU1852881</t>
   </si>
   <si>
@@ -698,18 +647,6 @@
     <t>DUS190208219</t>
   </si>
   <si>
-    <t>CAIU9510898</t>
-  </si>
-  <si>
-    <t>DJPDXA3956111</t>
-  </si>
-  <si>
-    <t>7180849905</t>
-  </si>
-  <si>
-    <t>NG11903BSQR8</t>
-  </si>
-  <si>
     <t>MOAU6789281</t>
   </si>
   <si>
@@ -719,12 +656,6 @@
     <t>SZPV30204900</t>
   </si>
   <si>
-    <t>HLXU6304337</t>
-  </si>
-  <si>
-    <t>DJPDXA3956117</t>
-  </si>
-  <si>
     <t>FSCU8696189</t>
   </si>
   <si>
@@ -740,12 +671,6 @@
     <t>6189198530</t>
   </si>
   <si>
-    <t>HLXU6319086</t>
-  </si>
-  <si>
-    <t>DJPDXA3964294</t>
-  </si>
-  <si>
     <t>TEMU7347810</t>
   </si>
   <si>
@@ -761,18 +686,6 @@
     <t>6189187460</t>
   </si>
   <si>
-    <t>TEMU8045901</t>
-  </si>
-  <si>
-    <t>DJSEAA3931557</t>
-  </si>
-  <si>
-    <t>7032005536</t>
-  </si>
-  <si>
-    <t>TPEV13596500</t>
-  </si>
-  <si>
     <t>TCNU9978305</t>
   </si>
   <si>
@@ -836,12 +749,6 @@
     <t>SHPP90032900</t>
   </si>
   <si>
-    <t>HLXU8229192</t>
-  </si>
-  <si>
-    <t>DJPDXA3956120</t>
-  </si>
-  <si>
     <t>TLLU4427445</t>
   </si>
   <si>
@@ -908,24 +815,6 @@
     <t>PRG190201833</t>
   </si>
   <si>
-    <t>TCLU6484493</t>
-  </si>
-  <si>
-    <t>DJPDXA3964296</t>
-  </si>
-  <si>
-    <t>TCLU4724960</t>
-  </si>
-  <si>
-    <t>DJPDXA3958191</t>
-  </si>
-  <si>
-    <t>7180845798</t>
-  </si>
-  <si>
-    <t>PRG190203777</t>
-  </si>
-  <si>
     <t>CBHU9529810</t>
   </si>
   <si>
@@ -989,18 +878,6 @@
     <t>DJSEAA3986452</t>
   </si>
   <si>
-    <t>GESU5742218</t>
-  </si>
-  <si>
-    <t>DJPDXA3964286</t>
-  </si>
-  <si>
-    <t>HLBU1313663</t>
-  </si>
-  <si>
-    <t>DJPDXA3964287</t>
-  </si>
-  <si>
     <t>HLXU8469676</t>
   </si>
   <si>
@@ -1091,6 +968,15 @@
     <t>29003AFXXRXY</t>
   </si>
   <si>
+    <t>HLXU3363125</t>
+  </si>
+  <si>
+    <t>7032027556</t>
+  </si>
+  <si>
+    <t>HLCUSZX1903BENC6</t>
+  </si>
+  <si>
     <t>CGMU5044025</t>
   </si>
   <si>
@@ -1110,6 +996,39 @@
   </si>
   <si>
     <t>DJSEAA3993768</t>
+  </si>
+  <si>
+    <t>EISU3941690</t>
+  </si>
+  <si>
+    <t>OOCL NEW YORK</t>
+  </si>
+  <si>
+    <t>00054</t>
+  </si>
+  <si>
+    <t>DJSEAA4000126</t>
+  </si>
+  <si>
+    <t>7031998324</t>
+  </si>
+  <si>
+    <t>102900015813</t>
+  </si>
+  <si>
+    <t>HLBU9018047</t>
+  </si>
+  <si>
+    <t>01140</t>
+  </si>
+  <si>
+    <t>7180845823</t>
+  </si>
+  <si>
+    <t>MUC190211660</t>
+  </si>
+  <si>
+    <t>UACU4802402</t>
   </si>
 </sst>
 </file>
@@ -1154,7 +1073,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1485,99 +1404,99 @@
         <v>74</v>
       </c>
       <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
         <v>75</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>76</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>77</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>78</v>
-      </c>
-      <c r="F17" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" t="s">
         <v>80</v>
       </c>
-      <c r="B18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" t="s">
-        <v>82</v>
-      </c>
       <c r="E18" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="F18" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" t="s">
         <v>85</v>
-      </c>
-      <c r="B19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E19" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" t="s">
         <v>87</v>
       </c>
-      <c r="B20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" t="s">
-        <v>89</v>
-      </c>
       <c r="E20" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="F20" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" t="s">
         <v>92</v>
       </c>
-      <c r="B21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
         <v>93</v>
-      </c>
-      <c r="E21" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="22">
@@ -1585,24 +1504,24 @@
         <v>94</v>
       </c>
       <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
         <v>95</v>
       </c>
-      <c r="C22" t="s">
+      <c r="E22" t="s">
         <v>96</v>
       </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
         <v>97</v>
-      </c>
-      <c r="E22" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B23" t="s">
         <v>62</v>
@@ -1611,113 +1530,113 @@
         <v>8</v>
       </c>
       <c r="D23" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" t="s">
         <v>101</v>
-      </c>
-      <c r="E23" t="s">
-        <v>102</v>
-      </c>
-      <c r="F23" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B24" t="s">
         <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F24" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B25" t="s">
         <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E25" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F25" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E26" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="F26" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="D27" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E27" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F27" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E28" t="s">
         <v>117</v>
       </c>
-      <c r="B28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="F28" t="s">
         <v>118</v>
-      </c>
-      <c r="E28" t="s">
-        <v>106</v>
-      </c>
-      <c r="F28" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="29">
@@ -1725,124 +1644,124 @@
         <v>119</v>
       </c>
       <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" t="s">
         <v>120</v>
       </c>
-      <c r="C29" t="s">
-        <v>121</v>
-      </c>
-      <c r="D29" t="s">
-        <v>122</v>
-      </c>
       <c r="E29" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="F29" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" t="s">
         <v>124</v>
       </c>
-      <c r="B30" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="E30" t="s">
         <v>125</v>
       </c>
-      <c r="D30" t="s">
+      <c r="F30" t="s">
         <v>126</v>
-      </c>
-      <c r="E30" t="s">
-        <v>127</v>
-      </c>
-      <c r="F30" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>127</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" t="s">
         <v>129</v>
       </c>
-      <c r="B31" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" t="s">
-        <v>88</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>130</v>
       </c>
-      <c r="E31" t="s">
-        <v>90</v>
-      </c>
       <c r="F31" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D32" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E32" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="F32" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>134</v>
+        <v>8</v>
       </c>
       <c r="D33" t="s">
         <v>135</v>
       </c>
       <c r="E33" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="F33" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="D34" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E34" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="F34" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B35" t="s">
         <v>62</v>
@@ -1851,13 +1770,13 @@
         <v>8</v>
       </c>
       <c r="D35" t="s">
+        <v>139</v>
+      </c>
+      <c r="E35" t="s">
+        <v>140</v>
+      </c>
+      <c r="F35" t="s">
         <v>141</v>
-      </c>
-      <c r="E35" t="s">
-        <v>106</v>
-      </c>
-      <c r="F35" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="36">
@@ -1865,264 +1784,264 @@
         <v>142</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="C36" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="D36" t="s">
         <v>143</v>
       </c>
       <c r="E36" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="F36" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="D37" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E37" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F37" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B38" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C38" t="s">
-        <v>121</v>
+        <v>26</v>
       </c>
       <c r="D38" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E38" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F38" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B39" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C39" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="D39" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E39" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F39" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="C40" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="D40" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E40" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F40" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B41" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="C41" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="D41" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E41" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F41" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B42" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="C42" t="s">
-        <v>26</v>
+        <v>169</v>
       </c>
       <c r="D42" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E42" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="F42" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B43" t="s">
-        <v>69</v>
+        <v>174</v>
       </c>
       <c r="C43" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="D43" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="E43" t="s">
-        <v>72</v>
+        <v>176</v>
       </c>
       <c r="F43" t="s">
-        <v>73</v>
+        <v>177</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
+        <v>179</v>
       </c>
       <c r="C44" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D44" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="E44" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="F44" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B45" t="s">
-        <v>174</v>
+        <v>62</v>
       </c>
       <c r="C45" t="s">
-        <v>175</v>
+        <v>63</v>
       </c>
       <c r="D45" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="E45" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F45" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="B46" t="s">
-        <v>180</v>
+        <v>62</v>
       </c>
       <c r="C46" t="s">
-        <v>181</v>
+        <v>63</v>
       </c>
       <c r="D46" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E46" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F46" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>187</v>
+      </c>
+      <c r="B47" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" t="s">
+        <v>184</v>
+      </c>
+      <c r="E47" t="s">
+        <v>184</v>
+      </c>
+      <c r="F47" t="s">
         <v>185</v>
-      </c>
-      <c r="B47" t="s">
-        <v>186</v>
-      </c>
-      <c r="C47" t="s">
-        <v>26</v>
-      </c>
-      <c r="D47" t="s">
-        <v>187</v>
-      </c>
-      <c r="E47" t="s">
-        <v>188</v>
-      </c>
-      <c r="F47" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B48" t="s">
-        <v>191</v>
+        <v>62</v>
       </c>
       <c r="C48" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="D48" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E48" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="F48" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B49" t="s">
         <v>62</v>
@@ -2131,18 +2050,18 @@
         <v>63</v>
       </c>
       <c r="D49" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="E49" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="F49" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B50" t="s">
         <v>62</v>
@@ -2151,18 +2070,18 @@
         <v>63</v>
       </c>
       <c r="D50" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="E50" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="F50" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B51" t="s">
         <v>62</v>
@@ -2171,53 +2090,53 @@
         <v>63</v>
       </c>
       <c r="D51" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="E51" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="F51" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B52" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="C52" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="D52" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E52" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F52" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>196</v>
+      </c>
+      <c r="B53" t="s">
+        <v>197</v>
+      </c>
+      <c r="C53" t="s">
+        <v>198</v>
+      </c>
+      <c r="D53" t="s">
+        <v>199</v>
+      </c>
+      <c r="E53" t="s">
+        <v>200</v>
+      </c>
+      <c r="F53" t="s">
         <v>201</v>
-      </c>
-      <c r="B53" t="s">
-        <v>62</v>
-      </c>
-      <c r="C53" t="s">
-        <v>63</v>
-      </c>
-      <c r="D53" t="s">
-        <v>196</v>
-      </c>
-      <c r="E53" t="s">
-        <v>196</v>
-      </c>
-      <c r="F53" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="54">
@@ -2225,959 +2144,759 @@
         <v>202</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="C54" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="D54" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="E54" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="F54" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B55" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="C55" t="s">
-        <v>63</v>
+        <v>207</v>
       </c>
       <c r="D55" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="E55" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="F55" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B56" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="C56" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="D56" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="E56" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F56" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B57" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="C57" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D57" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="E57" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="F57" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B58" t="s">
-        <v>214</v>
+        <v>162</v>
       </c>
       <c r="C58" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D58" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E58" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="F58" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B59" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="C59" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="D59" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="E59" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="F59" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B60" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="C60" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D60" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E60" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="F60" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B61" t="s">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="C61" t="s">
-        <v>70</v>
+        <v>123</v>
       </c>
       <c r="D61" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E61" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="F61" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B62" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C62" t="s">
-        <v>121</v>
+        <v>238</v>
       </c>
       <c r="D62" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E62" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F62" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B63" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C63" t="s">
-        <v>70</v>
+        <v>242</v>
       </c>
       <c r="D63" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="E63" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="F63" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B64" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="C64" t="s">
-        <v>238</v>
+        <v>163</v>
       </c>
       <c r="D64" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="E64" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="F64" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B65" t="s">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="C65" t="s">
-        <v>70</v>
+        <v>123</v>
       </c>
       <c r="D65" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="E65" t="s">
-        <v>72</v>
+        <v>251</v>
       </c>
       <c r="F65" t="s">
-        <v>73</v>
+        <v>252</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>244</v>
+        <v>109</v>
       </c>
       <c r="B66" t="s">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="C66" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D66" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="E66" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F66" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C67" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D67" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="E67" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F67" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B68" t="s">
         <v>56</v>
       </c>
       <c r="C68" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="D68" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="E68" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="F68" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="B69" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C69" t="s">
-        <v>258</v>
+        <v>128</v>
       </c>
       <c r="D69" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E69" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="F69" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B70" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C70" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D70" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="E70" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="F70" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B71" t="s">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="C71" t="s">
-        <v>267</v>
+        <v>123</v>
       </c>
       <c r="D71" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E71" t="s">
-        <v>268</v>
+        <v>125</v>
       </c>
       <c r="F71" t="s">
-        <v>269</v>
+        <v>126</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B72" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="C72" t="s">
-        <v>271</v>
+        <v>90</v>
       </c>
       <c r="D72" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E72" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F72" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B73" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C73" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D73" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E73" t="s">
-        <v>230</v>
+        <v>278</v>
       </c>
       <c r="F73" t="s">
-        <v>231</v>
+        <v>279</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B74" t="s">
-        <v>174</v>
+        <v>281</v>
       </c>
       <c r="C74" t="s">
-        <v>175</v>
+        <v>282</v>
       </c>
       <c r="D74" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E74" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="F74" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="B75" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="C75" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="D75" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="E75" t="s">
-        <v>282</v>
+        <v>151</v>
       </c>
       <c r="F75" t="s">
-        <v>283</v>
+        <v>152</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>119</v>
+        <v>288</v>
       </c>
       <c r="B76" t="s">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="C76" t="s">
-        <v>267</v>
+        <v>123</v>
       </c>
       <c r="D76" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="E76" t="s">
-        <v>284</v>
+        <v>125</v>
       </c>
       <c r="F76" t="s">
-        <v>285</v>
+        <v>126</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B77" t="s">
         <v>56</v>
       </c>
       <c r="C77" t="s">
-        <v>57</v>
+        <v>229</v>
       </c>
       <c r="D77" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E77" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="F77" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B78" t="s">
         <v>56</v>
       </c>
       <c r="C78" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D78" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="E78" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F78" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B79" t="s">
-        <v>35</v>
+        <v>281</v>
       </c>
       <c r="C79" t="s">
-        <v>134</v>
+        <v>8</v>
       </c>
       <c r="D79" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E79" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="F79" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B80" t="s">
-        <v>69</v>
+        <v>281</v>
       </c>
       <c r="C80" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="D80" t="s">
         <v>299</v>
       </c>
       <c r="E80" t="s">
-        <v>72</v>
+        <v>299</v>
       </c>
       <c r="F80" t="s">
-        <v>73</v>
+        <v>300</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>302</v>
+      </c>
+      <c r="B81" t="s">
+        <v>281</v>
+      </c>
+      <c r="C81" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" t="s">
+        <v>299</v>
+      </c>
+      <c r="E81" t="s">
+        <v>299</v>
+      </c>
+      <c r="F81" t="s">
         <v>300</v>
-      </c>
-      <c r="B81" t="s">
-        <v>35</v>
-      </c>
-      <c r="C81" t="s">
-        <v>134</v>
-      </c>
-      <c r="D81" t="s">
-        <v>301</v>
-      </c>
-      <c r="E81" t="s">
-        <v>302</v>
-      </c>
-      <c r="F81" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B82" t="s">
-        <v>56</v>
+        <v>281</v>
       </c>
       <c r="C82" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="D82" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="E82" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="F82" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B83" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C83" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D83" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E83" t="s">
-        <v>72</v>
+        <v>306</v>
       </c>
       <c r="F83" t="s">
-        <v>73</v>
+        <v>307</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
+        <v>308</v>
+      </c>
+      <c r="B84" t="s">
+        <v>197</v>
+      </c>
+      <c r="C84" t="s">
+        <v>309</v>
+      </c>
+      <c r="D84" t="s">
         <v>310</v>
       </c>
-      <c r="B84" t="s">
-        <v>95</v>
-      </c>
-      <c r="C84" t="s">
-        <v>96</v>
-      </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>311</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>312</v>
-      </c>
-      <c r="F84" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
+        <v>313</v>
+      </c>
+      <c r="B85" t="s">
+        <v>197</v>
+      </c>
+      <c r="C85" t="s">
         <v>314</v>
-      </c>
-      <c r="B85" t="s">
-        <v>62</v>
-      </c>
-      <c r="C85" t="s">
-        <v>63</v>
       </c>
       <c r="D85" t="s">
         <v>315</v>
       </c>
       <c r="E85" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F85" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B86" t="s">
-        <v>318</v>
+        <v>110</v>
       </c>
       <c r="C86" t="s">
+        <v>111</v>
+      </c>
+      <c r="D86" t="s">
         <v>319</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
+        <v>319</v>
+      </c>
+      <c r="F86" t="s">
         <v>320</v>
-      </c>
-      <c r="E86" t="s">
-        <v>321</v>
-      </c>
-      <c r="F86" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
+        <v>321</v>
+      </c>
+      <c r="B87" t="s">
+        <v>322</v>
+      </c>
+      <c r="C87" t="s">
         <v>323</v>
-      </c>
-      <c r="B87" t="s">
-        <v>120</v>
-      </c>
-      <c r="C87" t="s">
-        <v>26</v>
       </c>
       <c r="D87" t="s">
         <v>324</v>
       </c>
       <c r="E87" t="s">
-        <v>161</v>
+        <v>324</v>
       </c>
       <c r="F87" t="s">
-        <v>162</v>
+        <v>325</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B88" t="s">
-        <v>69</v>
+        <v>197</v>
       </c>
       <c r="C88" t="s">
-        <v>70</v>
+        <v>314</v>
       </c>
       <c r="D88" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E88" t="s">
-        <v>72</v>
+        <v>316</v>
       </c>
       <c r="F88" t="s">
-        <v>73</v>
+        <v>317</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B89" t="s">
-        <v>69</v>
+        <v>329</v>
       </c>
       <c r="C89" t="s">
-        <v>70</v>
+        <v>330</v>
       </c>
       <c r="D89" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="E89" t="s">
-        <v>72</v>
+        <v>332</v>
       </c>
       <c r="F89" t="s">
-        <v>73</v>
+        <v>333</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B90" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C90" t="s">
-        <v>70</v>
+        <v>335</v>
       </c>
       <c r="D90" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="E90" t="s">
-        <v>72</v>
+        <v>336</v>
       </c>
       <c r="F90" t="s">
-        <v>73</v>
+        <v>337</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="B91" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C91" t="s">
-        <v>258</v>
+        <v>335</v>
       </c>
       <c r="D91" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E91" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="F91" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>335</v>
-      </c>
-      <c r="B92" t="s">
-        <v>56</v>
-      </c>
-      <c r="C92" t="s">
-        <v>8</v>
-      </c>
-      <c r="D92" t="s">
-        <v>336</v>
-      </c>
-      <c r="E92" t="s">
         <v>337</v>
-      </c>
-      <c r="F92" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>339</v>
-      </c>
-      <c r="B93" t="s">
-        <v>318</v>
-      </c>
-      <c r="C93" t="s">
-        <v>8</v>
-      </c>
-      <c r="D93" t="s">
-        <v>340</v>
-      </c>
-      <c r="E93" t="s">
-        <v>340</v>
-      </c>
-      <c r="F93" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s">
-        <v>342</v>
-      </c>
-      <c r="B94" t="s">
-        <v>318</v>
-      </c>
-      <c r="C94" t="s">
-        <v>8</v>
-      </c>
-      <c r="D94" t="s">
-        <v>340</v>
-      </c>
-      <c r="E94" t="s">
-        <v>340</v>
-      </c>
-      <c r="F94" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
-        <v>343</v>
-      </c>
-      <c r="B95" t="s">
-        <v>318</v>
-      </c>
-      <c r="C95" t="s">
-        <v>8</v>
-      </c>
-      <c r="D95" t="s">
-        <v>340</v>
-      </c>
-      <c r="E95" t="s">
-        <v>340</v>
-      </c>
-      <c r="F95" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
-        <v>344</v>
-      </c>
-      <c r="B96" t="s">
-        <v>318</v>
-      </c>
-      <c r="C96" t="s">
-        <v>8</v>
-      </c>
-      <c r="D96" t="s">
-        <v>340</v>
-      </c>
-      <c r="E96" t="s">
-        <v>340</v>
-      </c>
-      <c r="F96" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s">
-        <v>345</v>
-      </c>
-      <c r="B97" t="s">
-        <v>56</v>
-      </c>
-      <c r="C97" t="s">
-        <v>57</v>
-      </c>
-      <c r="D97" t="s">
-        <v>346</v>
-      </c>
-      <c r="E97" t="s">
-        <v>347</v>
-      </c>
-      <c r="F97" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s">
-        <v>349</v>
-      </c>
-      <c r="B98" t="s">
-        <v>214</v>
-      </c>
-      <c r="C98" t="s">
-        <v>350</v>
-      </c>
-      <c r="D98" t="s">
-        <v>351</v>
-      </c>
-      <c r="E98" t="s">
-        <v>352</v>
-      </c>
-      <c r="F98" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s">
-        <v>354</v>
-      </c>
-      <c r="B99" t="s">
-        <v>214</v>
-      </c>
-      <c r="C99" t="s">
-        <v>355</v>
-      </c>
-      <c r="D99" t="s">
-        <v>356</v>
-      </c>
-      <c r="E99" t="s">
-        <v>357</v>
-      </c>
-      <c r="F99" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s">
-        <v>359</v>
-      </c>
-      <c r="B100" t="s">
-        <v>360</v>
-      </c>
-      <c r="C100" t="s">
-        <v>361</v>
-      </c>
-      <c r="D100" t="s">
-        <v>362</v>
-      </c>
-      <c r="E100" t="s">
-        <v>362</v>
-      </c>
-      <c r="F100" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s">
-        <v>364</v>
-      </c>
-      <c r="B101" t="s">
-        <v>214</v>
-      </c>
-      <c r="C101" t="s">
-        <v>355</v>
-      </c>
-      <c r="D101" t="s">
-        <v>365</v>
-      </c>
-      <c r="E101" t="s">
-        <v>357</v>
-      </c>
-      <c r="F101" t="s">
-        <v>358</v>
       </c>
     </row>
   </sheetData>

--- a/SeattleTerminal18/Test.xlsx
+++ b/SeattleTerminal18/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="293">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -320,60 +320,15 @@
     <t>6180310360</t>
   </si>
   <si>
-    <t>TLLU4407650</t>
-  </si>
-  <si>
-    <t>00083</t>
-  </si>
-  <si>
-    <t>DJSEAA4115658</t>
-  </si>
-  <si>
-    <t>7032030904</t>
-  </si>
-  <si>
-    <t>6194912290</t>
-  </si>
-  <si>
-    <t>TCLU4029799</t>
+    <t>SEGU5926478</t>
   </si>
   <si>
     <t>FRANKFURT EXPRESS</t>
   </si>
   <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>7032025398</t>
-  </si>
-  <si>
-    <t>TS9ND0926300</t>
-  </si>
-  <si>
-    <t>NYKU8478037</t>
-  </si>
-  <si>
-    <t>MOFU0604607</t>
-  </si>
-  <si>
-    <t>UACU3785785</t>
-  </si>
-  <si>
     <t>00056</t>
   </si>
   <si>
-    <t>DJSEAA4110188</t>
-  </si>
-  <si>
-    <t>7032030484</t>
-  </si>
-  <si>
-    <t>SEL190441951</t>
-  </si>
-  <si>
-    <t>SEGU5926478</t>
-  </si>
-  <si>
     <t>7180863871</t>
   </si>
   <si>
@@ -518,6 +473,24 @@
     <t>102900028036</t>
   </si>
   <si>
+    <t>NYKU5154034</t>
+  </si>
+  <si>
+    <t>NORTHERN JUSTICE</t>
+  </si>
+  <si>
+    <t>00006</t>
+  </si>
+  <si>
+    <t>DJSEAA4185315</t>
+  </si>
+  <si>
+    <t>7032037619</t>
+  </si>
+  <si>
+    <t>SH9ACE509700</t>
+  </si>
+  <si>
     <t>HAMU1211240</t>
   </si>
   <si>
@@ -551,6 +524,18 @@
     <t>6212304650</t>
   </si>
   <si>
+    <t>MAGU5565410</t>
+  </si>
+  <si>
+    <t>DJSEAA4186772</t>
+  </si>
+  <si>
+    <t>7032037557</t>
+  </si>
+  <si>
+    <t>6212403520</t>
+  </si>
+  <si>
     <t>UETU2136620</t>
   </si>
   <si>
@@ -563,6 +548,36 @@
     <t>SHA1904FWAJ8</t>
   </si>
   <si>
+    <t>NYKU3652573</t>
+  </si>
+  <si>
+    <t>NYK NEBULA</t>
+  </si>
+  <si>
+    <t>00064</t>
+  </si>
+  <si>
+    <t>DJPDXA4187391</t>
+  </si>
+  <si>
+    <t>7180865174</t>
+  </si>
+  <si>
+    <t>PRGV01897600</t>
+  </si>
+  <si>
+    <t>SKIU2147071</t>
+  </si>
+  <si>
+    <t>DJSEAA4187164</t>
+  </si>
+  <si>
+    <t>7032037139</t>
+  </si>
+  <si>
+    <t>6202682890</t>
+  </si>
+  <si>
     <t>MAGU5177760</t>
   </si>
   <si>
@@ -605,21 +620,6 @@
     <t>SJ2190410477</t>
   </si>
   <si>
-    <t>MNBU0610990</t>
-  </si>
-  <si>
-    <t>SEOUL EXPRESS</t>
-  </si>
-  <si>
-    <t>916</t>
-  </si>
-  <si>
-    <t>7180863100</t>
-  </si>
-  <si>
-    <t>SUDU49DUD0031551</t>
-  </si>
-  <si>
     <t>HLBU8080500</t>
   </si>
   <si>
@@ -647,6 +647,18 @@
     <t>6204679490</t>
   </si>
   <si>
+    <t>TCNU5557864</t>
+  </si>
+  <si>
+    <t>DJSEAA4185330</t>
+  </si>
+  <si>
+    <t>7032037622</t>
+  </si>
+  <si>
+    <t>SH9ACE505300</t>
+  </si>
+  <si>
     <t>DFSU6771652</t>
   </si>
   <si>
@@ -677,12 +689,42 @@
     <t>LE1190364523</t>
   </si>
   <si>
+    <t>TCKU4322053</t>
+  </si>
+  <si>
+    <t>006E</t>
+  </si>
+  <si>
+    <t>7032033900</t>
+  </si>
+  <si>
+    <t>SZPV58281300</t>
+  </si>
+  <si>
     <t>CSLU1384794</t>
   </si>
   <si>
     <t>DJSEAA4162476</t>
   </si>
   <si>
+    <t>SKIU2146537</t>
+  </si>
+  <si>
+    <t>DJSEAA4187162</t>
+  </si>
+  <si>
+    <t>NYKU4362630</t>
+  </si>
+  <si>
+    <t>DJPDXA4187381</t>
+  </si>
+  <si>
+    <t>7180865163</t>
+  </si>
+  <si>
+    <t>PRGV01895400</t>
+  </si>
+  <si>
     <t>UETU2150871</t>
   </si>
   <si>
@@ -740,6 +782,18 @@
     <t>TS9ND2441400</t>
   </si>
   <si>
+    <t>TLLU6033250</t>
+  </si>
+  <si>
+    <t>DJPDXA4191900</t>
+  </si>
+  <si>
+    <t>7180863561</t>
+  </si>
+  <si>
+    <t>TS9ND2431300</t>
+  </si>
+  <si>
     <t>APZU4869183</t>
   </si>
   <si>
@@ -755,12 +809,6 @@
     <t>KKTU8072967</t>
   </si>
   <si>
-    <t>NORTHERN JUSTICE</t>
-  </si>
-  <si>
-    <t>00006</t>
-  </si>
-  <si>
     <t>DJSEAA4185177</t>
   </si>
   <si>
@@ -770,19 +818,10 @@
     <t>MUMV26862400</t>
   </si>
   <si>
-    <t>MRKU2971035</t>
-  </si>
-  <si>
-    <t>00914</t>
-  </si>
-  <si>
-    <t>DJSEAA4168431</t>
-  </si>
-  <si>
-    <t>7032034305</t>
-  </si>
-  <si>
-    <t>29003AGFLGSB</t>
+    <t>SKIU2146922</t>
+  </si>
+  <si>
+    <t>DJSEAA4187107</t>
   </si>
   <si>
     <t>DFSU2029584</t>
@@ -798,12 +837,6 @@
   </si>
   <si>
     <t>SEL9B3256700</t>
-  </si>
-  <si>
-    <t>MSKU1655327</t>
-  </si>
-  <si>
-    <t>DJSEAA4168432</t>
   </si>
   <si>
     <t>KKTU8142278</t>
@@ -902,7 +935,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1393,13 +1426,13 @@
         <v>102</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E25" t="s">
         <v>105</v>
@@ -1422,544 +1455,544 @@
         <v>110</v>
       </c>
       <c r="E26" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F26" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B27" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C27" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D27" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E27" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F27" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B28" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="D28" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E28" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="F28" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B29" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="C29" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E29" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="F29" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B30" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="C30" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="D30" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="E30" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="F30" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" t="s">
         <v>122</v>
       </c>
-      <c r="B31" t="s">
-        <v>123</v>
-      </c>
       <c r="C31" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="D31" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E31" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F31" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B32" t="s">
         <v>108</v>
       </c>
       <c r="C32" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="D32" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E32" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="F32" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="D33" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E33" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F33" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" t="s">
         <v>137</v>
-      </c>
-      <c r="C34" t="s">
-        <v>19</v>
       </c>
       <c r="D34" t="s">
         <v>138</v>
       </c>
       <c r="E34" t="s">
+        <v>138</v>
+      </c>
+      <c r="F34" t="s">
         <v>139</v>
-      </c>
-      <c r="F34" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B35" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C35" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D35" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E35" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F35" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B36" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="C36" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D36" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E36" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F36" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B37" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="C37" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D37" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E37" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F37" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B38" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="C38" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="D38" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="E38" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F38" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="B39" t="s">
-        <v>123</v>
+        <v>166</v>
       </c>
       <c r="C39" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="D39" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="E39" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="F39" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="B40" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C40" t="s">
-        <v>159</v>
+        <v>42</v>
       </c>
       <c r="D40" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="E40" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="F40" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="C41" t="s">
-        <v>164</v>
+        <v>109</v>
       </c>
       <c r="D41" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="E41" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="F41" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B42" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C42" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D42" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="E42" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="F42" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B43" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C43" t="s">
-        <v>176</v>
+        <v>19</v>
       </c>
       <c r="D43" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="E43" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="F43" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="B44" t="s">
-        <v>123</v>
+        <v>166</v>
       </c>
       <c r="C44" t="s">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="D44" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="E44" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="F44" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="B45" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="C45" t="s">
-        <v>42</v>
+        <v>194</v>
       </c>
       <c r="D45" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="E45" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="F45" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="B46" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="C46" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="D46" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="E46" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="F46" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="B47" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="C47" t="s">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="D47" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E47" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="F47" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="B48" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="C48" t="s">
-        <v>199</v>
+        <v>19</v>
       </c>
       <c r="D48" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="E48" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="F48" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="B49" t="s">
-        <v>203</v>
+        <v>154</v>
       </c>
       <c r="C49" t="s">
-        <v>204</v>
+        <v>155</v>
       </c>
       <c r="D49" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="E49" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="F49" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B50" t="s">
-        <v>175</v>
+        <v>216</v>
       </c>
       <c r="C50" t="s">
-        <v>19</v>
+        <v>217</v>
       </c>
       <c r="D50" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="E50" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="F50" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="B51" t="s">
-        <v>212</v>
+        <v>160</v>
       </c>
       <c r="C51" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="D51" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="E51" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="F51" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="B52" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="C52" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="D52" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="E52" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="F52" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B53" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C53" t="s">
         <v>19</v>
       </c>
       <c r="D53" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="E53" t="s">
         <v>209</v>
@@ -1970,322 +2003,362 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="B54" t="s">
-        <v>123</v>
+        <v>166</v>
       </c>
       <c r="C54" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="D54" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="E54" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="F54" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B55" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C55" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D55" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="E55" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="F55" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="B56" t="s">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="C56" t="s">
-        <v>230</v>
+        <v>109</v>
       </c>
       <c r="D56" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="E56" t="s">
-        <v>231</v>
+        <v>176</v>
       </c>
       <c r="F56" t="s">
-        <v>232</v>
+        <v>177</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B57" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="C57" t="s">
-        <v>42</v>
+        <v>161</v>
       </c>
       <c r="D57" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="E57" t="s">
-        <v>185</v>
+        <v>241</v>
       </c>
       <c r="F57" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="B58" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="C58" t="s">
-        <v>152</v>
+        <v>244</v>
       </c>
       <c r="D58" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="E58" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="F58" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="B59" t="s">
-        <v>123</v>
+        <v>166</v>
       </c>
       <c r="C59" t="s">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="D59" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="E59" t="s">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="F59" t="s">
-        <v>241</v>
+        <v>191</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B60" t="s">
-        <v>175</v>
+        <v>108</v>
       </c>
       <c r="C60" t="s">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="D60" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="E60" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="F60" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B61" t="s">
-        <v>247</v>
+        <v>108</v>
       </c>
       <c r="C61" t="s">
-        <v>248</v>
+        <v>109</v>
       </c>
       <c r="D61" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E61" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F61" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B62" t="s">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="C62" t="s">
-        <v>253</v>
+        <v>109</v>
       </c>
       <c r="D62" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E62" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F62" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B63" t="s">
-        <v>212</v>
+        <v>166</v>
       </c>
       <c r="C63" t="s">
-        <v>258</v>
+        <v>42</v>
       </c>
       <c r="D63" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E63" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F63" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B64" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C64" t="s">
-        <v>253</v>
+        <v>155</v>
       </c>
       <c r="D64" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E64" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="F64" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B65" t="s">
-        <v>247</v>
+        <v>166</v>
       </c>
       <c r="C65" t="s">
-        <v>248</v>
+        <v>19</v>
       </c>
       <c r="D65" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E65" t="s">
-        <v>266</v>
+        <v>186</v>
       </c>
       <c r="F65" t="s">
-        <v>267</v>
+        <v>187</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B66" t="s">
-        <v>123</v>
+        <v>216</v>
       </c>
       <c r="C66" t="s">
-        <v>124</v>
+        <v>271</v>
       </c>
       <c r="D66" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E66" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F66" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B67" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="C67" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="D67" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E67" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F67" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B68" t="s">
-        <v>247</v>
+        <v>108</v>
       </c>
       <c r="C68" t="s">
-        <v>248</v>
+        <v>109</v>
       </c>
       <c r="D68" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E68" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F68" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B69" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="C69" t="s">
+        <v>194</v>
+      </c>
+      <c r="D69" t="s">
+        <v>284</v>
+      </c>
+      <c r="E69" t="s">
+        <v>285</v>
+      </c>
+      <c r="F69" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>287</v>
+      </c>
+      <c r="B70" t="s">
+        <v>154</v>
+      </c>
+      <c r="C70" t="s">
+        <v>155</v>
+      </c>
+      <c r="D70" t="s">
+        <v>288</v>
+      </c>
+      <c r="E70" t="s">
+        <v>289</v>
+      </c>
+      <c r="F70" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>291</v>
+      </c>
+      <c r="B71" t="s">
+        <v>166</v>
+      </c>
+      <c r="C71" t="s">
         <v>42</v>
       </c>
-      <c r="D69" t="s">
-        <v>281</v>
-      </c>
-      <c r="E69" t="s">
-        <v>244</v>
-      </c>
-      <c r="F69" t="s">
-        <v>245</v>
+      <c r="D71" t="s">
+        <v>292</v>
+      </c>
+      <c r="E71" t="s">
+        <v>262</v>
+      </c>
+      <c r="F71" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>
